--- a/source/projects/py/notes/builder/matrix.xlsx
+++ b/source/projects/py/notes/builder/matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa/Downloads/projects/py-js/source/py/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa/Downloads/projects/py-js/source/projects/py/notes/builder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6C4099-ED6F-704C-AC70-2D25ABFBD48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12B1E8E-67E2-194C-BB68-C357063056EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="3800" windowWidth="15660" windowHeight="11380" xr2:uid="{656454C3-FA4A-114C-8459-B2A646AF5476}"/>
+    <workbookView xWindow="860" yWindow="3800" windowWidth="25240" windowHeight="13240" activeTab="1" xr2:uid="{656454C3-FA4A-114C-8459-B2A646AF5476}"/>
   </bookViews>
   <sheets>
     <sheet name="testing" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
   <si>
     <t>static</t>
   </si>
@@ -102,18 +102,6 @@
     <t>xcode_proj</t>
   </si>
   <si>
-    <t>bin-homebrew-sys</t>
-  </si>
-  <si>
-    <t>bin-homebrew-ext</t>
-  </si>
-  <si>
-    <t>bin-homebrew-pkg</t>
-  </si>
-  <si>
-    <t>src-static-ext</t>
-  </si>
-  <si>
     <t>static-ext</t>
   </si>
   <si>
@@ -135,30 +123,12 @@
     <t>depends_on</t>
   </si>
   <si>
-    <t>src-shared-ext</t>
-  </si>
-  <si>
-    <t>src-shared-pkg</t>
-  </si>
-  <si>
     <t>py-js build variations 0.1.1</t>
   </si>
   <si>
     <t>relocatable-pkg</t>
   </si>
   <si>
-    <t>src-framework-ext</t>
-  </si>
-  <si>
-    <t>src-framework-pkg</t>
-  </si>
-  <si>
-    <t>src-shared-pkg-rpath</t>
-  </si>
-  <si>
-    <t>src-static-pkg</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -262,6 +232,12 @@
   </si>
   <si>
     <t>[2]</t>
+  </si>
+  <si>
+    <t>local-sys</t>
+  </si>
+  <si>
+    <t>static-pkg</t>
   </si>
 </sst>
 </file>
@@ -319,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,12 +311,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,58 +426,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -525,16 +489,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -850,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C7EDD8-2303-1D4E-BD35-415BCD4B1B09}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -861,33 +815,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>70</v>
+      <c r="B3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -904,7 +858,7 @@
     </row>
     <row r="5" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -913,12 +867,12 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -927,12 +881,12 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -949,7 +903,7 @@
     </row>
     <row r="8" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -966,7 +920,7 @@
     </row>
     <row r="9" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -983,7 +937,7 @@
     </row>
     <row r="10" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1000,7 +954,7 @@
     </row>
     <row r="11" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1017,7 +971,7 @@
     </row>
     <row r="12" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1026,12 +980,12 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1047,7 +1001,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
+      <c r="B16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1072,8 +1026,8 @@
   </sheetPr>
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1093,7 +1047,7 @@
   <sheetData>
     <row r="1" spans="2:14" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="19" x14ac:dyDescent="0.25">
@@ -1107,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -1119,13 +1073,13 @@
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>15</v>
@@ -1138,8 +1092,8 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
-        <v>56</v>
+      <c r="B4" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -1147,11 +1101,11 @@
       <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>53</v>
+      <c r="E4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>2</v>
@@ -1179,15 +1133,15 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1214,8 +1168,8 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>57</v>
+      <c r="B6" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
@@ -1223,11 +1177,11 @@
       <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>54</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>2</v>
@@ -1255,15 +1209,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1244,8 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>58</v>
+      <c r="B8" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
@@ -1299,11 +1253,11 @@
       <c r="D8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>55</v>
+      <c r="E8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>2</v>
@@ -1314,7 +1268,7 @@
       <c r="I8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="17">
         <v>1</v>
       </c>
       <c r="K8" s="5">
@@ -1326,20 +1280,20 @@
       <c r="M8" s="5">
         <v>1</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="29">
         <v>13.9</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1349,7 +1303,7 @@
       <c r="I9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="17">
         <v>1</v>
       </c>
       <c r="K9" s="5">
@@ -1361,11 +1315,11 @@
       <c r="M9" s="5">
         <v>1</v>
       </c>
-      <c r="N9" s="22"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
-        <v>59</v>
+      <c r="B10" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>18</v>
@@ -1373,11 +1327,11 @@
       <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>25</v>
+      <c r="E10" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>2</v>
@@ -1405,15 +1359,15 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="5" t="s">
         <v>3</v>
       </c>
@@ -1440,8 +1394,8 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
-        <v>60</v>
+      <c r="B12" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>18</v>
@@ -1449,11 +1403,11 @@
       <c r="D12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>26</v>
+      <c r="E12" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>2</v>
@@ -1481,15 +1435,15 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1516,8 +1470,8 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
-        <v>61</v>
+      <c r="B14" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>18</v>
@@ -1525,11 +1479,11 @@
       <c r="D14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>27</v>
+      <c r="E14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>2</v>
@@ -1557,15 +1511,15 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1592,8 +1546,8 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
-        <v>62</v>
+      <c r="B16" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
@@ -1601,11 +1555,11 @@
       <c r="D16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>28</v>
+      <c r="E16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>2</v>
@@ -1628,21 +1582,21 @@
       <c r="M16" s="5">
         <v>1</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="29">
         <f>18.7</f>
         <v>18.7</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1664,21 +1618,21 @@
       <c r="M17" s="5">
         <v>1</v>
       </c>
-      <c r="N17" s="22"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
-        <v>63</v>
+      <c r="B18" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>29</v>
+      <c r="E18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>2</v>
@@ -1702,13 +1656,13 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="9" t="s">
         <v>3</v>
       </c>
@@ -1731,8 +1685,8 @@
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
-        <v>64</v>
+      <c r="B20" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>18</v>
@@ -1740,11 +1694,11 @@
       <c r="D20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>30</v>
+      <c r="E20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>2</v>
@@ -1767,18 +1721,18 @@
       <c r="M20" s="9">
         <v>1</v>
       </c>
-      <c r="N20" s="28"/>
+      <c r="N20" s="25"/>
     </row>
     <row r="21" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="9" t="s">
         <v>3</v>
       </c>
@@ -1800,10 +1754,24 @@
       <c r="M21" s="9">
         <v>1</v>
       </c>
-      <c r="N21" s="28"/>
+      <c r="N21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="N20:N21"/>
@@ -1820,20 +1788,6 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -1842,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C27982-693A-F04A-877F-4F325C25078C}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1858,22 +1812,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>45</v>
+      <c r="B2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
@@ -1881,7 +1835,7 @@
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -1889,39 +1843,36 @@
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="16" t="s">
-        <v>29</v>
+      <c r="B6" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="16" t="s">
-        <v>30</v>
+      <c r="B7" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="14"/>
+      <c r="B8" s="30" t="s">
+        <v>29</v>
+      </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -1929,87 +1880,85 @@
     </row>
     <row r="10" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="19" t="s">
-        <v>36</v>
-      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
+      <c r="B12" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
-        <v>26</v>
-      </c>
+    <row r="19" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B19">
-    <sortCondition ref="B3:B19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B21">
+    <sortCondition ref="B3:B21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/source/projects/py/notes/builder/matrix.xlsx
+++ b/source/projects/py/notes/builder/matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa/Downloads/projects/py-js/source/projects/py/notes/builder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12B1E8E-67E2-194C-BB68-C357063056EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E64A24-6692-B24F-BEA5-3C68F85A1AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="3800" windowWidth="25240" windowHeight="13240" activeTab="1" xr2:uid="{656454C3-FA4A-114C-8459-B2A646AF5476}"/>
+    <workbookView xWindow="860" yWindow="3800" windowWidth="14180" windowHeight="13340" xr2:uid="{656454C3-FA4A-114C-8459-B2A646AF5476}"/>
   </bookViews>
   <sheets>
     <sheet name="testing" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
   <si>
     <t>static</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>static-pkg</t>
+  </si>
+  <si>
+    <t>3.11.2</t>
   </si>
 </sst>
 </file>
@@ -440,32 +443,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C7EDD8-2303-1D4E-BD35-415BCD4B1B09}">
-  <dimension ref="B2:G16"/>
+  <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,15 +817,16 @@
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="C2" s="21" t="s">
+    <row r="2" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>55</v>
       </c>
@@ -838,8 +842,11 @@
       <c r="F3" s="19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G3" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
@@ -855,8 +862,11 @@
       <c r="F4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
@@ -866,11 +876,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>44</v>
       </c>
@@ -880,11 +891,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
@@ -900,8 +912,11 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
@@ -917,8 +932,11 @@
       <c r="F8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
@@ -934,8 +952,11 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -951,8 +972,11 @@
       <c r="F10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
@@ -968,8 +992,11 @@
       <c r="F11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
@@ -979,11 +1006,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
@@ -999,15 +1027,18 @@
       <c r="F13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C4:F13">
+  <conditionalFormatting sqref="C4:G13">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1026,7 +1057,7 @@
   </sheetPr>
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
@@ -1092,7 +1123,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1133,7 +1164,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1168,7 +1199,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1209,7 +1240,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1244,7 +1275,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1280,12 +1311,12 @@
       <c r="M8" s="5">
         <v>1</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="24">
         <v>13.9</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1315,10 +1346,10 @@
       <c r="M9" s="5">
         <v>1</v>
       </c>
-      <c r="N9" s="29"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1359,7 +1390,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1394,7 +1425,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1435,7 +1466,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1470,7 +1501,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1511,7 +1542,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1546,7 +1577,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1582,13 +1613,13 @@
       <c r="M16" s="5">
         <v>1</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="24">
         <f>18.7</f>
         <v>18.7</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1618,20 +1649,20 @@
       <c r="M17" s="5">
         <v>1</v>
       </c>
-      <c r="N17" s="29"/>
+      <c r="N17" s="24"/>
     </row>
     <row r="18" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="28" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -1656,13 +1687,13 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="9" t="s">
         <v>3</v>
       </c>
@@ -1685,7 +1716,7 @@
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1694,10 +1725,10 @@
       <c r="D20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -1721,18 +1752,18 @@
       <c r="M20" s="9">
         <v>1</v>
       </c>
-      <c r="N20" s="25"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="9" t="s">
         <v>3</v>
       </c>
@@ -1754,24 +1785,10 @@
       <c r="M21" s="9">
         <v>1</v>
       </c>
-      <c r="N21" s="25"/>
+      <c r="N21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="N20:N21"/>
@@ -1788,6 +1805,20 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -1850,21 +1881,21 @@
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="14"/>

--- a/source/projects/py/notes/builder/matrix.xlsx
+++ b/source/projects/py/notes/builder/matrix.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa/Downloads/projects/py-js/source/projects/py/notes/builder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E64A24-6692-B24F-BEA5-3C68F85A1AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B06D59F-3822-0946-9199-2E89AD0ADF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="3800" windowWidth="14180" windowHeight="13340" xr2:uid="{656454C3-FA4A-114C-8459-B2A646AF5476}"/>
+    <workbookView xWindow="860" yWindow="3800" windowWidth="19360" windowHeight="13520" activeTab="6" xr2:uid="{656454C3-FA4A-114C-8459-B2A646AF5476}"/>
   </bookViews>
   <sheets>
     <sheet name="testing" sheetId="3" r:id="rId1"/>
     <sheet name="matrix" sheetId="1" r:id="rId2"/>
     <sheet name="targets" sheetId="2" r:id="rId3"/>
+    <sheet name="mappings" sheetId="4" r:id="rId4"/>
+    <sheet name="modref" sheetId="5" r:id="rId5"/>
+    <sheet name="modules" sheetId="6" r:id="rId6"/>
+    <sheet name="backup" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="211">
   <si>
     <t>static</t>
   </si>
@@ -241,6 +245,435 @@
   </si>
   <si>
     <t>3.11.2</t>
+  </si>
+  <si>
+    <t>python_shared</t>
+  </si>
+  <si>
+    <t>core.SharedPythonBuilder</t>
+  </si>
+  <si>
+    <t>python_shared_ext</t>
+  </si>
+  <si>
+    <t>core.SharedPythonForExtBuilder</t>
+  </si>
+  <si>
+    <t>python_shared_pkg</t>
+  </si>
+  <si>
+    <t>core.SharedPythonForPkgBuilder</t>
+  </si>
+  <si>
+    <t>python_framework</t>
+  </si>
+  <si>
+    <t>core.FrameworkPythonBuilder</t>
+  </si>
+  <si>
+    <t>python_framework_ext</t>
+  </si>
+  <si>
+    <t>core.FrameworkPythonForExtBuilder</t>
+  </si>
+  <si>
+    <t>python_framework_pkg</t>
+  </si>
+  <si>
+    <t>core.FrameworkPythonForPkgBuilder</t>
+  </si>
+  <si>
+    <t>python_relocatable</t>
+  </si>
+  <si>
+    <t>core.RelocatablePythonBuilder</t>
+  </si>
+  <si>
+    <t>python_static</t>
+  </si>
+  <si>
+    <t>core.StaticPythonBuilder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python_static_tiny  </t>
+  </si>
+  <si>
+    <t>core.TinyStaticPythonBuilder</t>
+  </si>
+  <si>
+    <t>python_beeware</t>
+  </si>
+  <si>
+    <t>core.BeewarePythonBuilder</t>
+  </si>
+  <si>
+    <t>pyjs_local_sys</t>
+  </si>
+  <si>
+    <t>core.LocalSystemBuilder</t>
+  </si>
+  <si>
+    <t>pyjs_homebrew_ext</t>
+  </si>
+  <si>
+    <t>core.HomebrewExtBuilder</t>
+  </si>
+  <si>
+    <t>pyjs_homebrew_pkg</t>
+  </si>
+  <si>
+    <t>core.HomebrewPkgBuilder</t>
+  </si>
+  <si>
+    <t>pyjs_shared_ext</t>
+  </si>
+  <si>
+    <t>core.SharedExtBuilder</t>
+  </si>
+  <si>
+    <t>pyjs_shared_pkg</t>
+  </si>
+  <si>
+    <t>core.SharedPkgBuilder</t>
+  </si>
+  <si>
+    <t>pyjs_framework_ext</t>
+  </si>
+  <si>
+    <t>core.FrameworkExtBuilder</t>
+  </si>
+  <si>
+    <t>pyjs_framework_pkg</t>
+  </si>
+  <si>
+    <t>core.FrameworkPkgBuilder</t>
+  </si>
+  <si>
+    <t>pyjs_relocatable_pkg</t>
+  </si>
+  <si>
+    <t>core.RelocatablePkgBuilder</t>
+  </si>
+  <si>
+    <t>pyjs_static_ext</t>
+  </si>
+  <si>
+    <t>core.StaticExtBuilder</t>
+  </si>
+  <si>
+    <t>pyjs_static_tiny_ext</t>
+  </si>
+  <si>
+    <t>python_static_tiny</t>
+  </si>
+  <si>
+    <t>pyjs_beeware_ext</t>
+  </si>
+  <si>
+    <t>core.BeewareExtBuilder</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>_codecs_tw</t>
+  </si>
+  <si>
+    <t>_codecs_kr</t>
+  </si>
+  <si>
+    <t>_codecs_jp</t>
+  </si>
+  <si>
+    <t>_codecs_iso2022</t>
+  </si>
+  <si>
+    <t>_codecs_hk</t>
+  </si>
+  <si>
+    <t>_codecs_cn</t>
+  </si>
+  <si>
+    <t>_multibytecodec</t>
+  </si>
+  <si>
+    <t>pyexpat</t>
+  </si>
+  <si>
+    <t>zlib</t>
+  </si>
+  <si>
+    <t>_lsprof</t>
+  </si>
+  <si>
+    <t>parser</t>
+  </si>
+  <si>
+    <t>binascii</t>
+  </si>
+  <si>
+    <t>_gdbm</t>
+  </si>
+  <si>
+    <t>_dbm</t>
+  </si>
+  <si>
+    <t>_curses_panel</t>
+  </si>
+  <si>
+    <t>_curses</t>
+  </si>
+  <si>
+    <t>syslog</t>
+  </si>
+  <si>
+    <t>_blake2</t>
+  </si>
+  <si>
+    <t>_sha3</t>
+  </si>
+  <si>
+    <t>_sha512</t>
+  </si>
+  <si>
+    <t>_sha256</t>
+  </si>
+  <si>
+    <t>_sha1</t>
+  </si>
+  <si>
+    <t>_md5</t>
+  </si>
+  <si>
+    <t>audioop</t>
+  </si>
+  <si>
+    <t>_posixsubprocess</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>termios</t>
+  </si>
+  <si>
+    <t>nis</t>
+  </si>
+  <si>
+    <t>_sqlite</t>
+  </si>
+  <si>
+    <t>_bz2</t>
+  </si>
+  <si>
+    <t>_ctypes</t>
+  </si>
+  <si>
+    <t>_crypt</t>
+  </si>
+  <si>
+    <t>_hashlib</t>
+  </si>
+  <si>
+    <t>_ssl</t>
+  </si>
+  <si>
+    <t>_socket</t>
+  </si>
+  <si>
+    <t>_csv</t>
+  </si>
+  <si>
+    <t>mmap</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>grp</t>
+  </si>
+  <si>
+    <t>spwd</t>
+  </si>
+  <si>
+    <t>fcntl</t>
+  </si>
+  <si>
+    <t>unicodedata</t>
+  </si>
+  <si>
+    <t>_statistics</t>
+  </si>
+  <si>
+    <t>_json</t>
+  </si>
+  <si>
+    <t>_asyncio</t>
+  </si>
+  <si>
+    <t>_heapq</t>
+  </si>
+  <si>
+    <t>_bisect</t>
+  </si>
+  <si>
+    <t>_zoneinfo</t>
+  </si>
+  <si>
+    <t>_datetime</t>
+  </si>
+  <si>
+    <t>_pickle</t>
+  </si>
+  <si>
+    <t>_elementtree</t>
+  </si>
+  <si>
+    <t>_random</t>
+  </si>
+  <si>
+    <t>_testinternalcapi</t>
+  </si>
+  <si>
+    <t>_testcapi</t>
+  </si>
+  <si>
+    <t>_weakref</t>
+  </si>
+  <si>
+    <t>_struct</t>
+  </si>
+  <si>
+    <t>_contextvars</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>cmath</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>readline</t>
+  </si>
+  <si>
+    <t>_symtable</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>_peg_parser</t>
+  </si>
+  <si>
+    <t>_tracemalloc</t>
+  </si>
+  <si>
+    <t>zipimport</t>
+  </si>
+  <si>
+    <t>faulthandler</t>
+  </si>
+  <si>
+    <t>_io</t>
+  </si>
+  <si>
+    <t>_locale</t>
+  </si>
+  <si>
+    <t>_thread</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>_stat</t>
+  </si>
+  <si>
+    <t>_signal</t>
+  </si>
+  <si>
+    <t>atexit</t>
+  </si>
+  <si>
+    <t>itertools</t>
+  </si>
+  <si>
+    <t>_abc</t>
+  </si>
+  <si>
+    <t>_collections</t>
+  </si>
+  <si>
+    <t>_operator</t>
+  </si>
+  <si>
+    <t>_functools</t>
+  </si>
+  <si>
+    <t>_codecs</t>
+  </si>
+  <si>
+    <t>_sre</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>errno</t>
+  </si>
+  <si>
+    <t>posix</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>is_enabled</t>
+  </si>
+  <si>
+    <t>_posixshmem</t>
+  </si>
+  <si>
+    <t>_multiprocessing</t>
+  </si>
+  <si>
+    <t>_opcode</t>
+  </si>
+  <si>
+    <t>_uuid</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>is_static</t>
   </si>
 </sst>
 </file>
@@ -298,7 +731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +753,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -446,14 +885,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,20 +903,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -807,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C7EDD8-2303-1D4E-BD35-415BCD4B1B09}">
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1039,10 +1619,10 @@
     <mergeCell ref="C2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:G13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1058,7 +1638,7 @@
   <dimension ref="B1:N21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,7 +1703,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="29" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1132,10 +1712,10 @@
       <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="27" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -1164,15 +1744,15 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1199,7 +1779,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1208,10 +1788,10 @@
       <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -1240,15 +1820,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1855,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="29" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1284,10 +1864,10 @@
       <c r="D8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="27" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -1311,20 +1891,20 @@
       <c r="M8" s="5">
         <v>1</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="30">
         <v>13.9</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1346,10 +1926,10 @@
       <c r="M9" s="5">
         <v>1</v>
       </c>
-      <c r="N9" s="24"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1358,10 +1938,10 @@
       <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="27" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -1390,15 +1970,15 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="5" t="s">
         <v>3</v>
       </c>
@@ -1425,7 +2005,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1434,10 +2014,10 @@
       <c r="D12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="27" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -1466,15 +2046,15 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1501,7 +2081,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="29" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1510,10 +2090,10 @@
       <c r="D14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="27" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -1542,15 +2122,15 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +2157,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="29" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1586,10 +2166,10 @@
       <c r="D16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -1613,21 +2193,21 @@
       <c r="M16" s="5">
         <v>1</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="30">
         <f>18.7</f>
         <v>18.7</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1649,7 +2229,7 @@
       <c r="M17" s="5">
         <v>1</v>
       </c>
-      <c r="N17" s="24"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="2:14" ht="19" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
@@ -1659,10 +2239,10 @@
         <v>18</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -1692,8 +2272,8 @@
         <v>18</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="9" t="s">
         <v>3</v>
       </c>
@@ -1725,10 +2305,10 @@
       <c r="D20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="23" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -1752,7 +2332,7 @@
       <c r="M20" s="9">
         <v>1</v>
       </c>
-      <c r="N20" s="30"/>
+      <c r="N20" s="26"/>
     </row>
     <row r="21" spans="2:14" ht="19" x14ac:dyDescent="0.25">
       <c r="B21" s="25"/>
@@ -1762,8 +2342,8 @@
       <c r="D21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="9" t="s">
         <v>3</v>
       </c>
@@ -1785,10 +2365,24 @@
       <c r="M21" s="9">
         <v>1</v>
       </c>
-      <c r="N21" s="30"/>
+      <c r="N21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="N20:N21"/>
@@ -1805,20 +2399,6 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -1994,4 +2574,8362 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1325414-B301-BD46-BEB4-158AC79A73F4}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E409426D-BC23-2E4B-B9C6-CDE1E1FABC73}">
+  <dimension ref="A1:K85"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="33">
+        <v>1</v>
+      </c>
+      <c r="H1" s="33">
+        <v>2</v>
+      </c>
+      <c r="I1" s="33">
+        <v>3</v>
+      </c>
+      <c r="J1" s="33">
+        <v>4</v>
+      </c>
+      <c r="K1" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31">
+        <v>1</v>
+      </c>
+      <c r="E2" s="31">
+        <v>1</v>
+      </c>
+      <c r="F2" s="31">
+        <v>1</v>
+      </c>
+      <c r="G2" s="31">
+        <v>1</v>
+      </c>
+      <c r="H2" s="31">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31">
+        <v>1</v>
+      </c>
+      <c r="J2" s="31">
+        <v>1</v>
+      </c>
+      <c r="K2" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="31">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31">
+        <v>1</v>
+      </c>
+      <c r="H3" s="31">
+        <v>1</v>
+      </c>
+      <c r="I3" s="31">
+        <v>1</v>
+      </c>
+      <c r="J3" s="31">
+        <v>1</v>
+      </c>
+      <c r="K3" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31">
+        <v>1</v>
+      </c>
+      <c r="H4" s="31">
+        <v>1</v>
+      </c>
+      <c r="I4" s="31">
+        <v>1</v>
+      </c>
+      <c r="J4" s="31">
+        <v>1</v>
+      </c>
+      <c r="K4" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31">
+        <v>1</v>
+      </c>
+      <c r="F5" s="31">
+        <v>1</v>
+      </c>
+      <c r="G5" s="31">
+        <v>1</v>
+      </c>
+      <c r="H5" s="31">
+        <v>1</v>
+      </c>
+      <c r="I5" s="31">
+        <v>1</v>
+      </c>
+      <c r="J5" s="31">
+        <v>1</v>
+      </c>
+      <c r="K5" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="31">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31">
+        <v>1</v>
+      </c>
+      <c r="H6" s="31">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31">
+        <v>1</v>
+      </c>
+      <c r="J6" s="31">
+        <v>1</v>
+      </c>
+      <c r="K6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="31">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1</v>
+      </c>
+      <c r="G7" s="31">
+        <v>1</v>
+      </c>
+      <c r="H7" s="31">
+        <v>1</v>
+      </c>
+      <c r="I7" s="31">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31">
+        <v>1</v>
+      </c>
+      <c r="K7" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="31">
+        <v>1</v>
+      </c>
+      <c r="D8" s="31">
+        <v>1</v>
+      </c>
+      <c r="E8" s="31">
+        <v>1</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31">
+        <v>1</v>
+      </c>
+      <c r="H8" s="31">
+        <v>1</v>
+      </c>
+      <c r="I8" s="31">
+        <v>1</v>
+      </c>
+      <c r="J8" s="31">
+        <v>1</v>
+      </c>
+      <c r="K8" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="31">
+        <v>1</v>
+      </c>
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1</v>
+      </c>
+      <c r="G9" s="31">
+        <v>1</v>
+      </c>
+      <c r="H9" s="31">
+        <v>1</v>
+      </c>
+      <c r="I9" s="31">
+        <v>1</v>
+      </c>
+      <c r="J9" s="31">
+        <v>1</v>
+      </c>
+      <c r="K9" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="31">
+        <v>1</v>
+      </c>
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1</v>
+      </c>
+      <c r="H10" s="31">
+        <v>1</v>
+      </c>
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
+      <c r="J10" s="31">
+        <v>1</v>
+      </c>
+      <c r="K10" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1</v>
+      </c>
+      <c r="D11" s="31">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1</v>
+      </c>
+      <c r="G11" s="31">
+        <v>1</v>
+      </c>
+      <c r="H11" s="31">
+        <v>1</v>
+      </c>
+      <c r="I11" s="31">
+        <v>1</v>
+      </c>
+      <c r="J11" s="31">
+        <v>1</v>
+      </c>
+      <c r="K11" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="31">
+        <v>1</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="31">
+        <v>1</v>
+      </c>
+      <c r="G12" s="31">
+        <v>1</v>
+      </c>
+      <c r="H12" s="31">
+        <v>1</v>
+      </c>
+      <c r="I12" s="31">
+        <v>1</v>
+      </c>
+      <c r="J12" s="31">
+        <v>1</v>
+      </c>
+      <c r="K12" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1</v>
+      </c>
+      <c r="D13" s="31">
+        <v>1</v>
+      </c>
+      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1</v>
+      </c>
+      <c r="G13" s="31">
+        <v>1</v>
+      </c>
+      <c r="H13" s="31">
+        <v>1</v>
+      </c>
+      <c r="I13" s="31">
+        <v>1</v>
+      </c>
+      <c r="J13" s="31">
+        <v>1</v>
+      </c>
+      <c r="K13" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="31">
+        <v>1</v>
+      </c>
+      <c r="D14" s="31">
+        <v>1</v>
+      </c>
+      <c r="E14" s="31">
+        <v>1</v>
+      </c>
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31">
+        <v>1</v>
+      </c>
+      <c r="H14" s="31">
+        <v>1</v>
+      </c>
+      <c r="I14" s="31">
+        <v>1</v>
+      </c>
+      <c r="J14" s="31">
+        <v>1</v>
+      </c>
+      <c r="K14" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="31">
+        <v>1</v>
+      </c>
+      <c r="D15" s="31">
+        <v>1</v>
+      </c>
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31">
+        <v>1</v>
+      </c>
+      <c r="H15" s="31">
+        <v>1</v>
+      </c>
+      <c r="I15" s="31">
+        <v>1</v>
+      </c>
+      <c r="J15" s="31">
+        <v>1</v>
+      </c>
+      <c r="K15" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="31">
+        <v>1</v>
+      </c>
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
+      <c r="E16" s="31">
+        <v>1</v>
+      </c>
+      <c r="F16" s="31">
+        <v>1</v>
+      </c>
+      <c r="G16" s="31">
+        <v>1</v>
+      </c>
+      <c r="H16" s="31">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31">
+        <v>1</v>
+      </c>
+      <c r="J16" s="31">
+        <v>1</v>
+      </c>
+      <c r="K16" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="31">
+        <v>1</v>
+      </c>
+      <c r="D17" s="31">
+        <v>1</v>
+      </c>
+      <c r="E17" s="31">
+        <v>1</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1</v>
+      </c>
+      <c r="G17" s="31">
+        <v>1</v>
+      </c>
+      <c r="H17" s="31">
+        <v>1</v>
+      </c>
+      <c r="I17" s="31">
+        <v>1</v>
+      </c>
+      <c r="J17" s="31">
+        <v>1</v>
+      </c>
+      <c r="K17" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="31">
+        <v>1</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1</v>
+      </c>
+      <c r="E18" s="31">
+        <v>1</v>
+      </c>
+      <c r="F18" s="31">
+        <v>1</v>
+      </c>
+      <c r="G18" s="31">
+        <v>1</v>
+      </c>
+      <c r="H18" s="31">
+        <v>1</v>
+      </c>
+      <c r="I18" s="31">
+        <v>1</v>
+      </c>
+      <c r="J18" s="31">
+        <v>1</v>
+      </c>
+      <c r="K18" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="31">
+        <v>1</v>
+      </c>
+      <c r="D19" s="31">
+        <v>1</v>
+      </c>
+      <c r="E19" s="31">
+        <v>1</v>
+      </c>
+      <c r="F19" s="31">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31">
+        <v>1</v>
+      </c>
+      <c r="H19" s="31">
+        <v>1</v>
+      </c>
+      <c r="I19" s="31">
+        <v>1</v>
+      </c>
+      <c r="J19" s="31">
+        <v>1</v>
+      </c>
+      <c r="K19" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1</v>
+      </c>
+      <c r="D20" s="31">
+        <v>1</v>
+      </c>
+      <c r="E20" s="31">
+        <v>1</v>
+      </c>
+      <c r="F20" s="31">
+        <v>1</v>
+      </c>
+      <c r="G20" s="31">
+        <v>1</v>
+      </c>
+      <c r="H20" s="31">
+        <v>1</v>
+      </c>
+      <c r="I20" s="31">
+        <v>1</v>
+      </c>
+      <c r="J20" s="31">
+        <v>1</v>
+      </c>
+      <c r="K20" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="31">
+        <v>1</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31">
+        <v>1</v>
+      </c>
+      <c r="H21" s="31">
+        <v>1</v>
+      </c>
+      <c r="I21" s="31">
+        <v>1</v>
+      </c>
+      <c r="J21" s="31">
+        <v>1</v>
+      </c>
+      <c r="K21" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="31">
+        <v>1</v>
+      </c>
+      <c r="D22" s="31">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31">
+        <v>1</v>
+      </c>
+      <c r="F22" s="31">
+        <v>1</v>
+      </c>
+      <c r="G22" s="31">
+        <v>1</v>
+      </c>
+      <c r="H22" s="31">
+        <v>1</v>
+      </c>
+      <c r="I22" s="31">
+        <v>1</v>
+      </c>
+      <c r="J22" s="31">
+        <v>1</v>
+      </c>
+      <c r="K22" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31">
+        <v>1</v>
+      </c>
+      <c r="F23" s="31">
+        <v>1</v>
+      </c>
+      <c r="G23" s="31">
+        <v>1</v>
+      </c>
+      <c r="H23" s="31">
+        <v>1</v>
+      </c>
+      <c r="I23" s="31">
+        <v>1</v>
+      </c>
+      <c r="J23" s="31">
+        <v>1</v>
+      </c>
+      <c r="K23" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="31">
+        <v>1</v>
+      </c>
+      <c r="D24" s="31">
+        <v>1</v>
+      </c>
+      <c r="E24" s="31">
+        <v>1</v>
+      </c>
+      <c r="F24" s="31">
+        <v>1</v>
+      </c>
+      <c r="G24" s="31">
+        <v>2</v>
+      </c>
+      <c r="H24" s="31">
+        <v>2</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="31">
+        <v>1</v>
+      </c>
+      <c r="D25" s="31">
+        <v>1</v>
+      </c>
+      <c r="E25" s="31">
+        <v>1</v>
+      </c>
+      <c r="F25" s="31">
+        <v>1</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="31">
+        <v>1</v>
+      </c>
+      <c r="D26" s="31">
+        <v>1</v>
+      </c>
+      <c r="E26" s="31">
+        <v>1</v>
+      </c>
+      <c r="F26" s="31">
+        <v>1</v>
+      </c>
+      <c r="G26" s="31">
+        <v>2</v>
+      </c>
+      <c r="H26" s="31">
+        <v>2</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="31">
+        <v>1</v>
+      </c>
+      <c r="D27" s="31">
+        <v>1</v>
+      </c>
+      <c r="E27" s="31">
+        <v>1</v>
+      </c>
+      <c r="F27" s="31">
+        <v>1</v>
+      </c>
+      <c r="G27" s="31">
+        <v>2</v>
+      </c>
+      <c r="H27" s="31">
+        <v>2</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="31">
+        <v>1</v>
+      </c>
+      <c r="D28" s="31">
+        <v>1</v>
+      </c>
+      <c r="E28" s="31">
+        <v>1</v>
+      </c>
+      <c r="F28" s="31">
+        <v>1</v>
+      </c>
+      <c r="G28" s="31">
+        <v>2</v>
+      </c>
+      <c r="H28" s="31">
+        <v>2</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="31">
+        <v>1</v>
+      </c>
+      <c r="D29" s="31">
+        <v>1</v>
+      </c>
+      <c r="E29" s="31">
+        <v>1</v>
+      </c>
+      <c r="F29" s="31">
+        <v>1</v>
+      </c>
+      <c r="G29" s="31">
+        <v>2</v>
+      </c>
+      <c r="H29" s="31">
+        <v>2</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="31">
+        <v>1</v>
+      </c>
+      <c r="D30" s="31">
+        <v>1</v>
+      </c>
+      <c r="E30" s="31">
+        <v>1</v>
+      </c>
+      <c r="F30" s="31">
+        <v>1</v>
+      </c>
+      <c r="G30" s="31">
+        <v>2</v>
+      </c>
+      <c r="H30" s="31">
+        <v>2</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="31">
+        <v>2</v>
+      </c>
+      <c r="H31" s="31">
+        <v>2</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="31">
+        <v>1</v>
+      </c>
+      <c r="D32" s="31">
+        <v>1</v>
+      </c>
+      <c r="E32" s="31">
+        <v>1</v>
+      </c>
+      <c r="F32" s="31">
+        <v>1</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31">
+        <v>1</v>
+      </c>
+      <c r="E33" s="31">
+        <v>1</v>
+      </c>
+      <c r="F33" s="31">
+        <v>1</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="31">
+        <v>1</v>
+      </c>
+      <c r="D34" s="31">
+        <v>1</v>
+      </c>
+      <c r="E34" s="31">
+        <v>1</v>
+      </c>
+      <c r="F34" s="31">
+        <v>1</v>
+      </c>
+      <c r="G34" s="31">
+        <v>2</v>
+      </c>
+      <c r="H34" s="31">
+        <v>2</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="31">
+        <v>1</v>
+      </c>
+      <c r="D35" s="31">
+        <v>1</v>
+      </c>
+      <c r="E35" s="31">
+        <v>1</v>
+      </c>
+      <c r="F35" s="31">
+        <v>1</v>
+      </c>
+      <c r="G35" s="31">
+        <v>2</v>
+      </c>
+      <c r="H35" s="31">
+        <v>2</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="31">
+        <v>1</v>
+      </c>
+      <c r="D36" s="31">
+        <v>1</v>
+      </c>
+      <c r="E36" s="31">
+        <v>1</v>
+      </c>
+      <c r="F36" s="31">
+        <v>1</v>
+      </c>
+      <c r="G36" s="31">
+        <v>2</v>
+      </c>
+      <c r="H36" s="31">
+        <v>2</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="31">
+        <v>1</v>
+      </c>
+      <c r="D37" s="31">
+        <v>1</v>
+      </c>
+      <c r="E37" s="31">
+        <v>1</v>
+      </c>
+      <c r="F37" s="31">
+        <v>1</v>
+      </c>
+      <c r="G37" s="31">
+        <v>2</v>
+      </c>
+      <c r="H37" s="31">
+        <v>2</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31">
+        <v>1</v>
+      </c>
+      <c r="F38" s="31">
+        <v>1</v>
+      </c>
+      <c r="G38" s="31">
+        <v>2</v>
+      </c>
+      <c r="H38" s="31">
+        <v>2</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="31">
+        <v>1</v>
+      </c>
+      <c r="D39" s="31">
+        <v>1</v>
+      </c>
+      <c r="E39" s="31">
+        <v>1</v>
+      </c>
+      <c r="F39" s="31">
+        <v>1</v>
+      </c>
+      <c r="G39" s="31">
+        <v>2</v>
+      </c>
+      <c r="H39" s="31">
+        <v>2</v>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="31">
+        <v>1</v>
+      </c>
+      <c r="D40" s="31">
+        <v>1</v>
+      </c>
+      <c r="E40" s="31">
+        <v>1</v>
+      </c>
+      <c r="F40" s="31">
+        <v>1</v>
+      </c>
+      <c r="G40" s="31">
+        <v>2</v>
+      </c>
+      <c r="H40" s="31">
+        <v>2</v>
+      </c>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="31">
+        <v>1</v>
+      </c>
+      <c r="D41" s="31">
+        <v>1</v>
+      </c>
+      <c r="E41" s="31">
+        <v>1</v>
+      </c>
+      <c r="F41" s="31">
+        <v>1</v>
+      </c>
+      <c r="G41" s="31">
+        <v>2</v>
+      </c>
+      <c r="H41" s="31">
+        <v>2</v>
+      </c>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31">
+        <v>1</v>
+      </c>
+      <c r="E42" s="31">
+        <v>1</v>
+      </c>
+      <c r="F42" s="31">
+        <v>1</v>
+      </c>
+      <c r="G42" s="31">
+        <v>2</v>
+      </c>
+      <c r="H42" s="31">
+        <v>2</v>
+      </c>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31">
+        <v>1</v>
+      </c>
+      <c r="E43" s="31">
+        <v>1</v>
+      </c>
+      <c r="F43" s="31">
+        <v>1</v>
+      </c>
+      <c r="G43" s="31">
+        <v>2</v>
+      </c>
+      <c r="H43" s="31">
+        <v>2</v>
+      </c>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="31">
+        <v>1</v>
+      </c>
+      <c r="D44" s="31">
+        <v>1</v>
+      </c>
+      <c r="E44" s="31">
+        <v>1</v>
+      </c>
+      <c r="F44" s="31">
+        <v>1</v>
+      </c>
+      <c r="G44" s="31">
+        <v>2</v>
+      </c>
+      <c r="H44" s="31">
+        <v>2</v>
+      </c>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="31">
+        <v>1</v>
+      </c>
+      <c r="D45" s="31">
+        <v>1</v>
+      </c>
+      <c r="E45" s="31">
+        <v>1</v>
+      </c>
+      <c r="F45" s="31">
+        <v>1</v>
+      </c>
+      <c r="G45" s="31">
+        <v>2</v>
+      </c>
+      <c r="H45" s="31">
+        <v>2</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="31">
+        <v>1</v>
+      </c>
+      <c r="D46" s="31">
+        <v>1</v>
+      </c>
+      <c r="E46" s="31">
+        <v>1</v>
+      </c>
+      <c r="F46" s="31">
+        <v>1</v>
+      </c>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="31">
+        <v>1</v>
+      </c>
+      <c r="D47" s="31">
+        <v>1</v>
+      </c>
+      <c r="E47" s="31">
+        <v>1</v>
+      </c>
+      <c r="F47" s="31">
+        <v>1</v>
+      </c>
+      <c r="G47" s="31">
+        <v>2</v>
+      </c>
+      <c r="H47" s="31">
+        <v>2</v>
+      </c>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="31">
+        <v>1</v>
+      </c>
+      <c r="D48" s="31">
+        <v>1</v>
+      </c>
+      <c r="E48" s="31">
+        <v>1</v>
+      </c>
+      <c r="F48" s="31">
+        <v>1</v>
+      </c>
+      <c r="G48" s="31">
+        <v>2</v>
+      </c>
+      <c r="H48" s="31">
+        <v>2</v>
+      </c>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="31">
+        <v>1</v>
+      </c>
+      <c r="D49" s="31">
+        <v>1</v>
+      </c>
+      <c r="E49" s="31">
+        <v>1</v>
+      </c>
+      <c r="F49" s="31">
+        <v>1</v>
+      </c>
+      <c r="G49" s="31">
+        <v>2</v>
+      </c>
+      <c r="H49" s="31">
+        <v>2</v>
+      </c>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="31">
+        <v>1</v>
+      </c>
+      <c r="D50" s="31">
+        <v>1</v>
+      </c>
+      <c r="E50" s="31">
+        <v>1</v>
+      </c>
+      <c r="F50" s="31">
+        <v>1</v>
+      </c>
+      <c r="G50" s="31">
+        <v>2</v>
+      </c>
+      <c r="H50" s="31">
+        <v>2</v>
+      </c>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="31">
+        <v>1</v>
+      </c>
+      <c r="D51" s="31">
+        <v>1</v>
+      </c>
+      <c r="E51" s="31">
+        <v>1</v>
+      </c>
+      <c r="F51" s="31">
+        <v>1</v>
+      </c>
+      <c r="G51" s="31">
+        <v>2</v>
+      </c>
+      <c r="H51" s="31">
+        <v>2</v>
+      </c>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="31">
+        <v>1</v>
+      </c>
+      <c r="D52" s="31">
+        <v>1</v>
+      </c>
+      <c r="E52" s="31">
+        <v>1</v>
+      </c>
+      <c r="F52" s="31">
+        <v>1</v>
+      </c>
+      <c r="G52" s="31">
+        <v>2</v>
+      </c>
+      <c r="H52" s="31">
+        <v>2</v>
+      </c>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31">
+        <v>1</v>
+      </c>
+      <c r="G53" s="31">
+        <v>2</v>
+      </c>
+      <c r="H53" s="31">
+        <v>2</v>
+      </c>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="31">
+        <v>1</v>
+      </c>
+      <c r="D54" s="31">
+        <v>1</v>
+      </c>
+      <c r="E54" s="31">
+        <v>1</v>
+      </c>
+      <c r="F54" s="31">
+        <v>1</v>
+      </c>
+      <c r="G54" s="31">
+        <v>2</v>
+      </c>
+      <c r="H54" s="31">
+        <v>2</v>
+      </c>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="31">
+        <v>1</v>
+      </c>
+      <c r="D58" s="31">
+        <v>1</v>
+      </c>
+      <c r="E58" s="31">
+        <v>1</v>
+      </c>
+      <c r="F58" s="31">
+        <v>1</v>
+      </c>
+      <c r="G58" s="31">
+        <v>2</v>
+      </c>
+      <c r="H58" s="31">
+        <v>2</v>
+      </c>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="31">
+        <v>1</v>
+      </c>
+      <c r="D59" s="31">
+        <v>1</v>
+      </c>
+      <c r="E59" s="31">
+        <v>1</v>
+      </c>
+      <c r="F59" s="31">
+        <v>1</v>
+      </c>
+      <c r="G59" s="31">
+        <v>2</v>
+      </c>
+      <c r="H59" s="31">
+        <v>2</v>
+      </c>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="31">
+        <v>1</v>
+      </c>
+      <c r="D60" s="31">
+        <v>1</v>
+      </c>
+      <c r="E60" s="31">
+        <v>1</v>
+      </c>
+      <c r="F60" s="31">
+        <v>1</v>
+      </c>
+      <c r="G60" s="31">
+        <v>2</v>
+      </c>
+      <c r="H60" s="31">
+        <v>2</v>
+      </c>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="31">
+        <v>1</v>
+      </c>
+      <c r="D61" s="31">
+        <v>1</v>
+      </c>
+      <c r="E61" s="31">
+        <v>1</v>
+      </c>
+      <c r="F61" s="31">
+        <v>1</v>
+      </c>
+      <c r="G61" s="31">
+        <v>2</v>
+      </c>
+      <c r="H61" s="31">
+        <v>2</v>
+      </c>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="31">
+        <v>1</v>
+      </c>
+      <c r="D62" s="31">
+        <v>1</v>
+      </c>
+      <c r="E62" s="31">
+        <v>1</v>
+      </c>
+      <c r="F62" s="31">
+        <v>1</v>
+      </c>
+      <c r="G62" s="31">
+        <v>2</v>
+      </c>
+      <c r="H62" s="31">
+        <v>2</v>
+      </c>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="31">
+        <v>1</v>
+      </c>
+      <c r="D63" s="31">
+        <v>1</v>
+      </c>
+      <c r="E63" s="31">
+        <v>1</v>
+      </c>
+      <c r="F63" s="31">
+        <v>1</v>
+      </c>
+      <c r="G63" s="31">
+        <v>2</v>
+      </c>
+      <c r="H63" s="31">
+        <v>2</v>
+      </c>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="31">
+        <v>1</v>
+      </c>
+      <c r="D64" s="31">
+        <v>1</v>
+      </c>
+      <c r="E64" s="31">
+        <v>1</v>
+      </c>
+      <c r="F64" s="31">
+        <v>1</v>
+      </c>
+      <c r="G64" s="31">
+        <v>2</v>
+      </c>
+      <c r="H64" s="31">
+        <v>2</v>
+      </c>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="31">
+        <v>1</v>
+      </c>
+      <c r="D65" s="31">
+        <v>1</v>
+      </c>
+      <c r="E65" s="31">
+        <v>1</v>
+      </c>
+      <c r="F65" s="31">
+        <v>1</v>
+      </c>
+      <c r="G65" s="31">
+        <v>2</v>
+      </c>
+      <c r="H65" s="31">
+        <v>2</v>
+      </c>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="31">
+        <v>1</v>
+      </c>
+      <c r="D66" s="31">
+        <v>1</v>
+      </c>
+      <c r="E66" s="31">
+        <v>1</v>
+      </c>
+      <c r="F66" s="31">
+        <v>1</v>
+      </c>
+      <c r="G66" s="31">
+        <v>2</v>
+      </c>
+      <c r="H66" s="31">
+        <v>2</v>
+      </c>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="31">
+        <v>1</v>
+      </c>
+      <c r="D67" s="31">
+        <v>1</v>
+      </c>
+      <c r="E67" s="31">
+        <v>1</v>
+      </c>
+      <c r="F67" s="31">
+        <v>1</v>
+      </c>
+      <c r="G67" s="31">
+        <v>2</v>
+      </c>
+      <c r="H67" s="31">
+        <v>2</v>
+      </c>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="31">
+        <v>1</v>
+      </c>
+      <c r="D68" s="31">
+        <v>1</v>
+      </c>
+      <c r="E68" s="31">
+        <v>1</v>
+      </c>
+      <c r="F68" s="31">
+        <v>1</v>
+      </c>
+      <c r="G68" s="31">
+        <v>2</v>
+      </c>
+      <c r="H68" s="31">
+        <v>2</v>
+      </c>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="31">
+        <v>1</v>
+      </c>
+      <c r="D69" s="31">
+        <v>1</v>
+      </c>
+      <c r="E69" s="31">
+        <v>1</v>
+      </c>
+      <c r="F69" s="31">
+        <v>1</v>
+      </c>
+      <c r="G69" s="31">
+        <v>2</v>
+      </c>
+      <c r="H69" s="31">
+        <v>2</v>
+      </c>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="31">
+        <v>1</v>
+      </c>
+      <c r="D70" s="31">
+        <v>1</v>
+      </c>
+      <c r="E70" s="31">
+        <v>1</v>
+      </c>
+      <c r="F70" s="31">
+        <v>1</v>
+      </c>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="31">
+        <v>1</v>
+      </c>
+      <c r="D71" s="31">
+        <v>1</v>
+      </c>
+      <c r="E71" s="31">
+        <v>1</v>
+      </c>
+      <c r="F71" s="31">
+        <v>1</v>
+      </c>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="31">
+        <v>1</v>
+      </c>
+      <c r="D72" s="31">
+        <v>1</v>
+      </c>
+      <c r="E72" s="31">
+        <v>1</v>
+      </c>
+      <c r="F72" s="31">
+        <v>1</v>
+      </c>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="31">
+        <v>1</v>
+      </c>
+      <c r="D73" s="31">
+        <v>1</v>
+      </c>
+      <c r="E73" s="31">
+        <v>1</v>
+      </c>
+      <c r="F73" s="31">
+        <v>1</v>
+      </c>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="31">
+        <v>1</v>
+      </c>
+      <c r="D74" s="31">
+        <v>1</v>
+      </c>
+      <c r="E74" s="31">
+        <v>1</v>
+      </c>
+      <c r="F74" s="31">
+        <v>1</v>
+      </c>
+      <c r="G74" s="31">
+        <v>2</v>
+      </c>
+      <c r="H74" s="31">
+        <v>2</v>
+      </c>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="31">
+        <v>1</v>
+      </c>
+      <c r="D75" s="31">
+        <v>1</v>
+      </c>
+      <c r="E75" s="31">
+        <v>1</v>
+      </c>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31">
+        <v>2</v>
+      </c>
+      <c r="H75" s="31">
+        <v>2</v>
+      </c>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="31"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31">
+        <v>2</v>
+      </c>
+      <c r="H76" s="31">
+        <v>2</v>
+      </c>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="31">
+        <v>1</v>
+      </c>
+      <c r="D77" s="31">
+        <v>1</v>
+      </c>
+      <c r="E77" s="31">
+        <v>1</v>
+      </c>
+      <c r="F77" s="31">
+        <v>1</v>
+      </c>
+      <c r="G77" s="31">
+        <v>2</v>
+      </c>
+      <c r="H77" s="31">
+        <v>2</v>
+      </c>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="31">
+        <v>1</v>
+      </c>
+      <c r="D78" s="31">
+        <v>1</v>
+      </c>
+      <c r="E78" s="31">
+        <v>1</v>
+      </c>
+      <c r="F78" s="31">
+        <v>1</v>
+      </c>
+      <c r="G78" s="31">
+        <v>2</v>
+      </c>
+      <c r="H78" s="31">
+        <v>2</v>
+      </c>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="31">
+        <v>1</v>
+      </c>
+      <c r="D79" s="31">
+        <v>1</v>
+      </c>
+      <c r="E79" s="31">
+        <v>1</v>
+      </c>
+      <c r="F79" s="31">
+        <v>1</v>
+      </c>
+      <c r="G79" s="31">
+        <v>2</v>
+      </c>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="31">
+        <v>1</v>
+      </c>
+      <c r="D80" s="31">
+        <v>1</v>
+      </c>
+      <c r="E80" s="31">
+        <v>1</v>
+      </c>
+      <c r="F80" s="31">
+        <v>1</v>
+      </c>
+      <c r="G80" s="31">
+        <v>2</v>
+      </c>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="31">
+        <v>1</v>
+      </c>
+      <c r="D81" s="31">
+        <v>1</v>
+      </c>
+      <c r="E81" s="31">
+        <v>1</v>
+      </c>
+      <c r="F81" s="31">
+        <v>1</v>
+      </c>
+      <c r="G81" s="31">
+        <v>2</v>
+      </c>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="31">
+        <v>1</v>
+      </c>
+      <c r="D82" s="31">
+        <v>1</v>
+      </c>
+      <c r="E82" s="31">
+        <v>1</v>
+      </c>
+      <c r="F82" s="31">
+        <v>1</v>
+      </c>
+      <c r="G82" s="31">
+        <v>2</v>
+      </c>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="31">
+        <v>1</v>
+      </c>
+      <c r="D83" s="31">
+        <v>1</v>
+      </c>
+      <c r="E83" s="31">
+        <v>1</v>
+      </c>
+      <c r="F83" s="31">
+        <v>1</v>
+      </c>
+      <c r="G83" s="31">
+        <v>2</v>
+      </c>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="31">
+        <v>1</v>
+      </c>
+      <c r="D84" s="31">
+        <v>1</v>
+      </c>
+      <c r="E84" s="31">
+        <v>1</v>
+      </c>
+      <c r="F84" s="31">
+        <v>1</v>
+      </c>
+      <c r="G84" s="31">
+        <v>2</v>
+      </c>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="31">
+        <v>1</v>
+      </c>
+      <c r="D85" s="31">
+        <v>1</v>
+      </c>
+      <c r="E85" s="31">
+        <v>1</v>
+      </c>
+      <c r="F85" s="31">
+        <v>1</v>
+      </c>
+      <c r="G85" s="31">
+        <v>2</v>
+      </c>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:F85">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:K85">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F331F93-657E-8B4A-AC52-419E9C2C82CE}">
+  <dimension ref="A1:L85"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="33">
+        <v>1</v>
+      </c>
+      <c r="I1" s="33">
+        <v>2</v>
+      </c>
+      <c r="J1" s="33">
+        <v>3</v>
+      </c>
+      <c r="K1" s="33">
+        <v>4</v>
+      </c>
+      <c r="L1" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31">
+        <v>1</v>
+      </c>
+      <c r="E2" s="31">
+        <v>1</v>
+      </c>
+      <c r="F2" s="31">
+        <v>1</v>
+      </c>
+      <c r="G2" s="31">
+        <v>1</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="31">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31">
+        <v>1</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31">
+        <v>1</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31">
+        <v>1</v>
+      </c>
+      <c r="F5" s="31">
+        <v>1</v>
+      </c>
+      <c r="G5" s="31">
+        <v>1</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="31">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31">
+        <v>1</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="31">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1</v>
+      </c>
+      <c r="G7" s="31">
+        <v>1</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="31">
+        <v>1</v>
+      </c>
+      <c r="D8" s="31">
+        <v>1</v>
+      </c>
+      <c r="E8" s="31">
+        <v>1</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31">
+        <v>1</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="31">
+        <v>1</v>
+      </c>
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1</v>
+      </c>
+      <c r="G9" s="31">
+        <v>1</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="31">
+        <v>1</v>
+      </c>
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1</v>
+      </c>
+      <c r="D11" s="31">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1</v>
+      </c>
+      <c r="G11" s="31">
+        <v>1</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="31">
+        <v>1</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="31">
+        <v>1</v>
+      </c>
+      <c r="G12" s="31">
+        <v>1</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1</v>
+      </c>
+      <c r="D13" s="31">
+        <v>1</v>
+      </c>
+      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1</v>
+      </c>
+      <c r="G13" s="31">
+        <v>1</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="31">
+        <v>1</v>
+      </c>
+      <c r="D14" s="31">
+        <v>1</v>
+      </c>
+      <c r="E14" s="31">
+        <v>1</v>
+      </c>
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31">
+        <v>1</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="31">
+        <v>1</v>
+      </c>
+      <c r="D15" s="31">
+        <v>1</v>
+      </c>
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31">
+        <v>1</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="31">
+        <v>1</v>
+      </c>
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
+      <c r="E16" s="31">
+        <v>1</v>
+      </c>
+      <c r="F16" s="31">
+        <v>1</v>
+      </c>
+      <c r="G16" s="31">
+        <v>1</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="31">
+        <v>1</v>
+      </c>
+      <c r="D17" s="31">
+        <v>1</v>
+      </c>
+      <c r="E17" s="31">
+        <v>1</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1</v>
+      </c>
+      <c r="G17" s="31">
+        <v>1</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="31">
+        <v>1</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1</v>
+      </c>
+      <c r="E18" s="31">
+        <v>1</v>
+      </c>
+      <c r="F18" s="31">
+        <v>1</v>
+      </c>
+      <c r="G18" s="31">
+        <v>1</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="31">
+        <v>1</v>
+      </c>
+      <c r="D19" s="31">
+        <v>1</v>
+      </c>
+      <c r="E19" s="31">
+        <v>1</v>
+      </c>
+      <c r="F19" s="31">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31">
+        <v>1</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1</v>
+      </c>
+      <c r="D20" s="31">
+        <v>1</v>
+      </c>
+      <c r="E20" s="31">
+        <v>1</v>
+      </c>
+      <c r="F20" s="31">
+        <v>1</v>
+      </c>
+      <c r="G20" s="31">
+        <v>1</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="31">
+        <v>1</v>
+      </c>
+      <c r="D21" s="31">
+        <v>1</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="31">
+        <v>1</v>
+      </c>
+      <c r="D22" s="31">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31">
+        <v>1</v>
+      </c>
+      <c r="F22" s="31">
+        <v>1</v>
+      </c>
+      <c r="G22" s="31">
+        <v>1</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="31">
+        <v>1</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31">
+        <v>1</v>
+      </c>
+      <c r="G23" s="31">
+        <v>1</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="31">
+        <v>1</v>
+      </c>
+      <c r="D24" s="31">
+        <v>1</v>
+      </c>
+      <c r="E24" s="31">
+        <v>1</v>
+      </c>
+      <c r="F24" s="31">
+        <v>1</v>
+      </c>
+      <c r="G24" s="31">
+        <v>1</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="25" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31">
+        <v>1</v>
+      </c>
+      <c r="E25" s="31">
+        <v>1</v>
+      </c>
+      <c r="F25" s="31">
+        <v>1</v>
+      </c>
+      <c r="G25" s="31">
+        <v>1</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="31">
+        <v>1</v>
+      </c>
+      <c r="D26" s="31">
+        <v>1</v>
+      </c>
+      <c r="E26" s="31">
+        <v>1</v>
+      </c>
+      <c r="F26" s="31">
+        <v>1</v>
+      </c>
+      <c r="G26" s="31">
+        <v>1</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="31">
+        <v>1</v>
+      </c>
+      <c r="D27" s="31">
+        <v>1</v>
+      </c>
+      <c r="E27" s="31">
+        <v>1</v>
+      </c>
+      <c r="F27" s="31">
+        <v>1</v>
+      </c>
+      <c r="G27" s="31">
+        <v>1</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="31">
+        <v>1</v>
+      </c>
+      <c r="D28" s="31">
+        <v>1</v>
+      </c>
+      <c r="E28" s="31">
+        <v>1</v>
+      </c>
+      <c r="F28" s="31">
+        <v>1</v>
+      </c>
+      <c r="G28" s="31">
+        <v>1</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="31">
+        <v>1</v>
+      </c>
+      <c r="D29" s="31">
+        <v>1</v>
+      </c>
+      <c r="E29" s="31">
+        <v>1</v>
+      </c>
+      <c r="F29" s="31">
+        <v>1</v>
+      </c>
+      <c r="G29" s="31">
+        <v>1</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="31">
+        <v>1</v>
+      </c>
+      <c r="D30" s="31">
+        <v>1</v>
+      </c>
+      <c r="E30" s="31">
+        <v>1</v>
+      </c>
+      <c r="F30" s="31">
+        <v>1</v>
+      </c>
+      <c r="G30" s="31">
+        <v>1</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31">
+        <v>1</v>
+      </c>
+      <c r="E32" s="31">
+        <v>1</v>
+      </c>
+      <c r="F32" s="31">
+        <v>1</v>
+      </c>
+      <c r="G32" s="31">
+        <v>1</v>
+      </c>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31">
+        <v>1</v>
+      </c>
+      <c r="F33" s="31">
+        <v>1</v>
+      </c>
+      <c r="G33" s="31">
+        <v>1</v>
+      </c>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="31">
+        <v>1</v>
+      </c>
+      <c r="D34" s="31">
+        <v>1</v>
+      </c>
+      <c r="E34" s="31">
+        <v>1</v>
+      </c>
+      <c r="F34" s="31">
+        <v>1</v>
+      </c>
+      <c r="G34" s="31">
+        <v>1</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="31">
+        <v>1</v>
+      </c>
+      <c r="D35" s="31">
+        <v>1</v>
+      </c>
+      <c r="E35" s="31">
+        <v>1</v>
+      </c>
+      <c r="F35" s="31">
+        <v>1</v>
+      </c>
+      <c r="G35" s="31">
+        <v>1</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="31">
+        <v>1</v>
+      </c>
+      <c r="D36" s="31">
+        <v>1</v>
+      </c>
+      <c r="E36" s="31">
+        <v>1</v>
+      </c>
+      <c r="F36" s="31">
+        <v>1</v>
+      </c>
+      <c r="G36" s="31">
+        <v>1</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="31">
+        <v>1</v>
+      </c>
+      <c r="D37" s="31">
+        <v>1</v>
+      </c>
+      <c r="E37" s="31">
+        <v>1</v>
+      </c>
+      <c r="F37" s="31">
+        <v>1</v>
+      </c>
+      <c r="G37" s="31">
+        <v>1</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="31">
+        <v>1</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31">
+        <v>1</v>
+      </c>
+      <c r="G38" s="31">
+        <v>1</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="31">
+        <v>1</v>
+      </c>
+      <c r="D39" s="31">
+        <v>1</v>
+      </c>
+      <c r="E39" s="31">
+        <v>1</v>
+      </c>
+      <c r="F39" s="31">
+        <v>1</v>
+      </c>
+      <c r="G39" s="31">
+        <v>1</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="31">
+        <v>1</v>
+      </c>
+      <c r="D40" s="31">
+        <v>1</v>
+      </c>
+      <c r="E40" s="31">
+        <v>1</v>
+      </c>
+      <c r="F40" s="31">
+        <v>1</v>
+      </c>
+      <c r="G40" s="31">
+        <v>1</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="31">
+        <v>1</v>
+      </c>
+      <c r="D41" s="31">
+        <v>1</v>
+      </c>
+      <c r="E41" s="31">
+        <v>1</v>
+      </c>
+      <c r="F41" s="31">
+        <v>1</v>
+      </c>
+      <c r="G41" s="31">
+        <v>1</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="31">
+        <v>1</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31">
+        <v>1</v>
+      </c>
+      <c r="F42" s="31">
+        <v>1</v>
+      </c>
+      <c r="G42" s="31">
+        <v>1</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="31">
+        <v>1</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31">
+        <v>1</v>
+      </c>
+      <c r="F43" s="31">
+        <v>1</v>
+      </c>
+      <c r="G43" s="31">
+        <v>1</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="31">
+        <v>1</v>
+      </c>
+      <c r="D44" s="31">
+        <v>1</v>
+      </c>
+      <c r="E44" s="31">
+        <v>1</v>
+      </c>
+      <c r="F44" s="31">
+        <v>1</v>
+      </c>
+      <c r="G44" s="31">
+        <v>1</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="31">
+        <v>1</v>
+      </c>
+      <c r="D45" s="31">
+        <v>1</v>
+      </c>
+      <c r="E45" s="31">
+        <v>1</v>
+      </c>
+      <c r="F45" s="31">
+        <v>1</v>
+      </c>
+      <c r="G45" s="31">
+        <v>1</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31">
+        <v>1</v>
+      </c>
+      <c r="E46" s="31">
+        <v>1</v>
+      </c>
+      <c r="F46" s="31">
+        <v>1</v>
+      </c>
+      <c r="G46" s="31">
+        <v>1</v>
+      </c>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="31">
+        <v>1</v>
+      </c>
+      <c r="D47" s="31">
+        <v>1</v>
+      </c>
+      <c r="E47" s="31">
+        <v>1</v>
+      </c>
+      <c r="F47" s="31">
+        <v>1</v>
+      </c>
+      <c r="G47" s="31">
+        <v>1</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="31">
+        <v>1</v>
+      </c>
+      <c r="D48" s="31">
+        <v>1</v>
+      </c>
+      <c r="E48" s="31">
+        <v>1</v>
+      </c>
+      <c r="F48" s="31">
+        <v>1</v>
+      </c>
+      <c r="G48" s="31">
+        <v>1</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="31">
+        <v>1</v>
+      </c>
+      <c r="D49" s="31">
+        <v>1</v>
+      </c>
+      <c r="E49" s="31">
+        <v>1</v>
+      </c>
+      <c r="F49" s="31">
+        <v>1</v>
+      </c>
+      <c r="G49" s="31">
+        <v>1</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="31">
+        <v>1</v>
+      </c>
+      <c r="D50" s="31">
+        <v>1</v>
+      </c>
+      <c r="E50" s="31">
+        <v>1</v>
+      </c>
+      <c r="F50" s="31">
+        <v>1</v>
+      </c>
+      <c r="G50" s="31">
+        <v>1</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="31">
+        <v>1</v>
+      </c>
+      <c r="D51" s="31">
+        <v>1</v>
+      </c>
+      <c r="E51" s="31">
+        <v>1</v>
+      </c>
+      <c r="F51" s="31">
+        <v>1</v>
+      </c>
+      <c r="G51" s="31">
+        <v>1</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="31">
+        <v>1</v>
+      </c>
+      <c r="D52" s="31">
+        <v>1</v>
+      </c>
+      <c r="E52" s="31">
+        <v>1</v>
+      </c>
+      <c r="F52" s="31">
+        <v>1</v>
+      </c>
+      <c r="G52" s="31">
+        <v>1</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I52" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="31">
+        <v>1</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31">
+        <v>1</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="31">
+        <v>1</v>
+      </c>
+      <c r="D54" s="31">
+        <v>1</v>
+      </c>
+      <c r="E54" s="31">
+        <v>1</v>
+      </c>
+      <c r="F54" s="31">
+        <v>1</v>
+      </c>
+      <c r="G54" s="31">
+        <v>1</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I54" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="31">
+        <v>1</v>
+      </c>
+      <c r="D58" s="31">
+        <v>1</v>
+      </c>
+      <c r="E58" s="31">
+        <v>1</v>
+      </c>
+      <c r="F58" s="31">
+        <v>1</v>
+      </c>
+      <c r="G58" s="31">
+        <v>1</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="31">
+        <v>1</v>
+      </c>
+      <c r="D59" s="31">
+        <v>1</v>
+      </c>
+      <c r="E59" s="31">
+        <v>1</v>
+      </c>
+      <c r="F59" s="31">
+        <v>1</v>
+      </c>
+      <c r="G59" s="31">
+        <v>1</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="31">
+        <v>1</v>
+      </c>
+      <c r="D60" s="31">
+        <v>1</v>
+      </c>
+      <c r="E60" s="31">
+        <v>1</v>
+      </c>
+      <c r="F60" s="31">
+        <v>1</v>
+      </c>
+      <c r="G60" s="31">
+        <v>1</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I60" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="31">
+        <v>1</v>
+      </c>
+      <c r="D61" s="31">
+        <v>1</v>
+      </c>
+      <c r="E61" s="31">
+        <v>1</v>
+      </c>
+      <c r="F61" s="31">
+        <v>1</v>
+      </c>
+      <c r="G61" s="31">
+        <v>1</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="31">
+        <v>1</v>
+      </c>
+      <c r="D62" s="31">
+        <v>1</v>
+      </c>
+      <c r="E62" s="31">
+        <v>1</v>
+      </c>
+      <c r="F62" s="31">
+        <v>1</v>
+      </c>
+      <c r="G62" s="31">
+        <v>1</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I62" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="31">
+        <v>1</v>
+      </c>
+      <c r="D63" s="31">
+        <v>1</v>
+      </c>
+      <c r="E63" s="31">
+        <v>1</v>
+      </c>
+      <c r="F63" s="31">
+        <v>1</v>
+      </c>
+      <c r="G63" s="31">
+        <v>1</v>
+      </c>
+      <c r="H63" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I63" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="31">
+        <v>1</v>
+      </c>
+      <c r="D64" s="31">
+        <v>1</v>
+      </c>
+      <c r="E64" s="31">
+        <v>1</v>
+      </c>
+      <c r="F64" s="31">
+        <v>1</v>
+      </c>
+      <c r="G64" s="31">
+        <v>1</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="31">
+        <v>1</v>
+      </c>
+      <c r="D65" s="31">
+        <v>1</v>
+      </c>
+      <c r="E65" s="31">
+        <v>1</v>
+      </c>
+      <c r="F65" s="31">
+        <v>1</v>
+      </c>
+      <c r="G65" s="31">
+        <v>1</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="31">
+        <v>1</v>
+      </c>
+      <c r="D66" s="31">
+        <v>1</v>
+      </c>
+      <c r="E66" s="31">
+        <v>1</v>
+      </c>
+      <c r="F66" s="31">
+        <v>1</v>
+      </c>
+      <c r="G66" s="31">
+        <v>1</v>
+      </c>
+      <c r="H66" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="31">
+        <v>1</v>
+      </c>
+      <c r="D67" s="31">
+        <v>1</v>
+      </c>
+      <c r="E67" s="31">
+        <v>1</v>
+      </c>
+      <c r="F67" s="31">
+        <v>1</v>
+      </c>
+      <c r="G67" s="31">
+        <v>1</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="31">
+        <v>1</v>
+      </c>
+      <c r="D68" s="31">
+        <v>1</v>
+      </c>
+      <c r="E68" s="31">
+        <v>1</v>
+      </c>
+      <c r="F68" s="31">
+        <v>1</v>
+      </c>
+      <c r="G68" s="31">
+        <v>1</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I68" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="31">
+        <v>1</v>
+      </c>
+      <c r="D69" s="31">
+        <v>1</v>
+      </c>
+      <c r="E69" s="31">
+        <v>1</v>
+      </c>
+      <c r="F69" s="31">
+        <v>1</v>
+      </c>
+      <c r="G69" s="31">
+        <v>1</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I69" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31">
+        <v>1</v>
+      </c>
+      <c r="E70" s="31">
+        <v>1</v>
+      </c>
+      <c r="F70" s="31">
+        <v>1</v>
+      </c>
+      <c r="G70" s="31">
+        <v>1</v>
+      </c>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31">
+        <v>1</v>
+      </c>
+      <c r="E71" s="31">
+        <v>1</v>
+      </c>
+      <c r="F71" s="31">
+        <v>1</v>
+      </c>
+      <c r="G71" s="31">
+        <v>1</v>
+      </c>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31">
+        <v>1</v>
+      </c>
+      <c r="E72" s="31">
+        <v>1</v>
+      </c>
+      <c r="F72" s="31">
+        <v>1</v>
+      </c>
+      <c r="G72" s="31">
+        <v>1</v>
+      </c>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31">
+        <v>1</v>
+      </c>
+      <c r="E73" s="31">
+        <v>1</v>
+      </c>
+      <c r="F73" s="31">
+        <v>1</v>
+      </c>
+      <c r="G73" s="31">
+        <v>1</v>
+      </c>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="31">
+        <v>1</v>
+      </c>
+      <c r="D74" s="31">
+        <v>1</v>
+      </c>
+      <c r="E74" s="31">
+        <v>1</v>
+      </c>
+      <c r="F74" s="31">
+        <v>1</v>
+      </c>
+      <c r="G74" s="31">
+        <v>1</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I74" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="31">
+        <v>1</v>
+      </c>
+      <c r="D75" s="31">
+        <v>1</v>
+      </c>
+      <c r="E75" s="31">
+        <v>1</v>
+      </c>
+      <c r="F75" s="31">
+        <v>1</v>
+      </c>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I75" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J75" s="31"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="31">
+        <v>1</v>
+      </c>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="31">
+        <v>1</v>
+      </c>
+      <c r="D77" s="31">
+        <v>1</v>
+      </c>
+      <c r="E77" s="31">
+        <v>1</v>
+      </c>
+      <c r="F77" s="31">
+        <v>1</v>
+      </c>
+      <c r="G77" s="31">
+        <v>1</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="31">
+        <v>1</v>
+      </c>
+      <c r="D78" s="31">
+        <v>1</v>
+      </c>
+      <c r="E78" s="31">
+        <v>1</v>
+      </c>
+      <c r="F78" s="31">
+        <v>1</v>
+      </c>
+      <c r="G78" s="31">
+        <v>1</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="31">
+        <v>1</v>
+      </c>
+      <c r="D79" s="31">
+        <v>1</v>
+      </c>
+      <c r="E79" s="31">
+        <v>1</v>
+      </c>
+      <c r="F79" s="31">
+        <v>1</v>
+      </c>
+      <c r="G79" s="31">
+        <v>1</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="31">
+        <v>1</v>
+      </c>
+      <c r="D80" s="31">
+        <v>1</v>
+      </c>
+      <c r="E80" s="31">
+        <v>1</v>
+      </c>
+      <c r="F80" s="31">
+        <v>1</v>
+      </c>
+      <c r="G80" s="31">
+        <v>1</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="31">
+        <v>1</v>
+      </c>
+      <c r="D81" s="31">
+        <v>1</v>
+      </c>
+      <c r="E81" s="31">
+        <v>1</v>
+      </c>
+      <c r="F81" s="31">
+        <v>1</v>
+      </c>
+      <c r="G81" s="31">
+        <v>1</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="31">
+        <v>1</v>
+      </c>
+      <c r="D82" s="31">
+        <v>1</v>
+      </c>
+      <c r="E82" s="31">
+        <v>1</v>
+      </c>
+      <c r="F82" s="31">
+        <v>1</v>
+      </c>
+      <c r="G82" s="31">
+        <v>1</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="31">
+        <v>1</v>
+      </c>
+      <c r="D83" s="31">
+        <v>1</v>
+      </c>
+      <c r="E83" s="31">
+        <v>1</v>
+      </c>
+      <c r="F83" s="31">
+        <v>1</v>
+      </c>
+      <c r="G83" s="31">
+        <v>1</v>
+      </c>
+      <c r="H83" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="31">
+        <v>1</v>
+      </c>
+      <c r="D84" s="31">
+        <v>1</v>
+      </c>
+      <c r="E84" s="31">
+        <v>1</v>
+      </c>
+      <c r="F84" s="31">
+        <v>1</v>
+      </c>
+      <c r="G84" s="31">
+        <v>1</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="31">
+        <v>1</v>
+      </c>
+      <c r="D85" s="31">
+        <v>1</v>
+      </c>
+      <c r="E85" s="31">
+        <v>1</v>
+      </c>
+      <c r="F85" s="31">
+        <v>1</v>
+      </c>
+      <c r="G85" s="31">
+        <v>1</v>
+      </c>
+      <c r="H85" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C24">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:F38 D22:F24 D2:G21 G22:G38">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:G85">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:L85">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"d"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C75BFA3-F5EE-FE49-8A3B-C70B318B47E1}">
+  <dimension ref="A1:M86"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="33">
+        <v>1</v>
+      </c>
+      <c r="J1" s="33">
+        <v>2</v>
+      </c>
+      <c r="K1" s="33">
+        <v>3</v>
+      </c>
+      <c r="L1" s="33">
+        <v>4</v>
+      </c>
+      <c r="M1" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31">
+        <v>1</v>
+      </c>
+      <c r="E2" s="31">
+        <v>1</v>
+      </c>
+      <c r="F2" s="31">
+        <v>1</v>
+      </c>
+      <c r="G2" s="31">
+        <v>1</v>
+      </c>
+      <c r="H2" s="31">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="31">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31">
+        <v>1</v>
+      </c>
+      <c r="H3" s="31">
+        <v>1</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31">
+        <v>1</v>
+      </c>
+      <c r="H4" s="31">
+        <v>1</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31">
+        <v>1</v>
+      </c>
+      <c r="F5" s="31">
+        <v>1</v>
+      </c>
+      <c r="G5" s="31">
+        <v>1</v>
+      </c>
+      <c r="H5" s="31">
+        <v>1</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="31">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31">
+        <v>1</v>
+      </c>
+      <c r="H6" s="31">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="31">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1</v>
+      </c>
+      <c r="G7" s="31">
+        <v>1</v>
+      </c>
+      <c r="H7" s="31">
+        <v>1</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="31">
+        <v>1</v>
+      </c>
+      <c r="D8" s="31">
+        <v>1</v>
+      </c>
+      <c r="E8" s="31">
+        <v>1</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31">
+        <v>1</v>
+      </c>
+      <c r="H8" s="31">
+        <v>1</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="31">
+        <v>1</v>
+      </c>
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1</v>
+      </c>
+      <c r="G9" s="31">
+        <v>1</v>
+      </c>
+      <c r="H9" s="31">
+        <v>1</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="31">
+        <v>1</v>
+      </c>
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1</v>
+      </c>
+      <c r="H10" s="31">
+        <v>1</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1</v>
+      </c>
+      <c r="D11" s="31">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1</v>
+      </c>
+      <c r="G11" s="31">
+        <v>1</v>
+      </c>
+      <c r="H11" s="31">
+        <v>1</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="31">
+        <v>1</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="31">
+        <v>1</v>
+      </c>
+      <c r="G12" s="31">
+        <v>1</v>
+      </c>
+      <c r="H12" s="31">
+        <v>1</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1</v>
+      </c>
+      <c r="D13" s="31">
+        <v>1</v>
+      </c>
+      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1</v>
+      </c>
+      <c r="G13" s="31">
+        <v>1</v>
+      </c>
+      <c r="H13" s="31">
+        <v>1</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="31">
+        <v>1</v>
+      </c>
+      <c r="D14" s="31">
+        <v>1</v>
+      </c>
+      <c r="E14" s="31">
+        <v>1</v>
+      </c>
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31">
+        <v>1</v>
+      </c>
+      <c r="H14" s="31">
+        <v>1</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="31">
+        <v>1</v>
+      </c>
+      <c r="D15" s="31">
+        <v>1</v>
+      </c>
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31">
+        <v>1</v>
+      </c>
+      <c r="H15" s="31">
+        <v>1</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="31">
+        <v>1</v>
+      </c>
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
+      <c r="E16" s="31">
+        <v>1</v>
+      </c>
+      <c r="F16" s="31">
+        <v>1</v>
+      </c>
+      <c r="G16" s="31">
+        <v>1</v>
+      </c>
+      <c r="H16" s="31">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="31">
+        <v>1</v>
+      </c>
+      <c r="D17" s="31">
+        <v>1</v>
+      </c>
+      <c r="E17" s="31">
+        <v>1</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1</v>
+      </c>
+      <c r="G17" s="31">
+        <v>1</v>
+      </c>
+      <c r="H17" s="31">
+        <v>1</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="31">
+        <v>1</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1</v>
+      </c>
+      <c r="E18" s="31">
+        <v>1</v>
+      </c>
+      <c r="F18" s="31">
+        <v>1</v>
+      </c>
+      <c r="G18" s="31">
+        <v>1</v>
+      </c>
+      <c r="H18" s="31">
+        <v>1</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="31">
+        <v>1</v>
+      </c>
+      <c r="D19" s="31">
+        <v>1</v>
+      </c>
+      <c r="E19" s="31">
+        <v>1</v>
+      </c>
+      <c r="F19" s="31">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31">
+        <v>1</v>
+      </c>
+      <c r="H19" s="31">
+        <v>1</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1</v>
+      </c>
+      <c r="D20" s="31">
+        <v>1</v>
+      </c>
+      <c r="E20" s="31">
+        <v>1</v>
+      </c>
+      <c r="F20" s="31">
+        <v>1</v>
+      </c>
+      <c r="G20" s="31">
+        <v>1</v>
+      </c>
+      <c r="H20" s="31">
+        <v>1</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="31">
+        <v>1</v>
+      </c>
+      <c r="D21" s="31">
+        <v>1</v>
+      </c>
+      <c r="E21" s="31">
+        <v>1</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="31">
+        <v>1</v>
+      </c>
+      <c r="D22" s="31">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31">
+        <v>1</v>
+      </c>
+      <c r="F22" s="31">
+        <v>1</v>
+      </c>
+      <c r="G22" s="31">
+        <v>1</v>
+      </c>
+      <c r="H22" s="31">
+        <v>1</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="31">
+        <v>1</v>
+      </c>
+      <c r="D23" s="31">
+        <v>1</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31">
+        <v>1</v>
+      </c>
+      <c r="H23" s="31">
+        <v>1</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="31">
+        <v>1</v>
+      </c>
+      <c r="D24" s="31">
+        <v>1</v>
+      </c>
+      <c r="E24" s="31">
+        <v>1</v>
+      </c>
+      <c r="F24" s="31">
+        <v>1</v>
+      </c>
+      <c r="G24" s="31">
+        <v>1</v>
+      </c>
+      <c r="H24" s="31">
+        <v>1</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="31">
+        <v>1</v>
+      </c>
+      <c r="D25" s="31">
+        <v>1</v>
+      </c>
+      <c r="E25" s="31">
+        <v>1</v>
+      </c>
+      <c r="F25" s="31">
+        <v>1</v>
+      </c>
+      <c r="G25" s="31">
+        <v>1</v>
+      </c>
+      <c r="H25" s="31">
+        <v>1</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="31">
+        <v>1</v>
+      </c>
+      <c r="D26" s="31">
+        <v>1</v>
+      </c>
+      <c r="E26" s="31">
+        <v>1</v>
+      </c>
+      <c r="F26" s="31">
+        <v>1</v>
+      </c>
+      <c r="G26" s="31">
+        <v>1</v>
+      </c>
+      <c r="H26" s="31">
+        <v>1</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="31">
+        <v>1</v>
+      </c>
+      <c r="D27" s="31">
+        <v>1</v>
+      </c>
+      <c r="E27" s="31">
+        <v>1</v>
+      </c>
+      <c r="F27" s="31">
+        <v>1</v>
+      </c>
+      <c r="G27" s="31">
+        <v>1</v>
+      </c>
+      <c r="H27" s="31">
+        <v>1</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="31">
+        <v>1</v>
+      </c>
+      <c r="D28" s="31">
+        <v>1</v>
+      </c>
+      <c r="E28" s="31">
+        <v>1</v>
+      </c>
+      <c r="F28" s="31">
+        <v>1</v>
+      </c>
+      <c r="G28" s="31">
+        <v>1</v>
+      </c>
+      <c r="H28" s="31">
+        <v>1</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="31">
+        <v>1</v>
+      </c>
+      <c r="D29" s="31">
+        <v>1</v>
+      </c>
+      <c r="E29" s="31">
+        <v>1</v>
+      </c>
+      <c r="F29" s="31">
+        <v>1</v>
+      </c>
+      <c r="G29" s="31">
+        <v>1</v>
+      </c>
+      <c r="H29" s="31">
+        <v>1</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="31">
+        <v>1</v>
+      </c>
+      <c r="D30" s="31">
+        <v>1</v>
+      </c>
+      <c r="E30" s="31">
+        <v>1</v>
+      </c>
+      <c r="F30" s="31">
+        <v>1</v>
+      </c>
+      <c r="G30" s="31">
+        <v>1</v>
+      </c>
+      <c r="H30" s="31">
+        <v>1</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="31">
+        <v>1</v>
+      </c>
+      <c r="D32" s="31">
+        <v>1</v>
+      </c>
+      <c r="E32" s="31">
+        <v>1</v>
+      </c>
+      <c r="F32" s="31">
+        <v>1</v>
+      </c>
+      <c r="G32" s="31">
+        <v>1</v>
+      </c>
+      <c r="H32" s="31">
+        <v>1</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="31">
+        <v>1</v>
+      </c>
+      <c r="D33" s="31">
+        <v>1</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31">
+        <v>1</v>
+      </c>
+      <c r="G33" s="31">
+        <v>1</v>
+      </c>
+      <c r="H33" s="31">
+        <v>1</v>
+      </c>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="31">
+        <v>1</v>
+      </c>
+      <c r="D34" s="31">
+        <v>1</v>
+      </c>
+      <c r="E34" s="31">
+        <v>1</v>
+      </c>
+      <c r="F34" s="31">
+        <v>1</v>
+      </c>
+      <c r="G34" s="31">
+        <v>1</v>
+      </c>
+      <c r="H34" s="31">
+        <v>1</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="31">
+        <v>1</v>
+      </c>
+      <c r="D35" s="31">
+        <v>1</v>
+      </c>
+      <c r="E35" s="31">
+        <v>1</v>
+      </c>
+      <c r="F35" s="31">
+        <v>1</v>
+      </c>
+      <c r="G35" s="31">
+        <v>1</v>
+      </c>
+      <c r="H35" s="31">
+        <v>1</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="31">
+        <v>1</v>
+      </c>
+      <c r="D36" s="31">
+        <v>1</v>
+      </c>
+      <c r="E36" s="31">
+        <v>1</v>
+      </c>
+      <c r="F36" s="31">
+        <v>1</v>
+      </c>
+      <c r="G36" s="31">
+        <v>1</v>
+      </c>
+      <c r="H36" s="31">
+        <v>1</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="31">
+        <v>1</v>
+      </c>
+      <c r="D37" s="31">
+        <v>1</v>
+      </c>
+      <c r="E37" s="31">
+        <v>1</v>
+      </c>
+      <c r="F37" s="31">
+        <v>1</v>
+      </c>
+      <c r="G37" s="31">
+        <v>1</v>
+      </c>
+      <c r="H37" s="31">
+        <v>1</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="31">
+        <v>1</v>
+      </c>
+      <c r="D38" s="31">
+        <v>1</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31">
+        <v>1</v>
+      </c>
+      <c r="H38" s="31">
+        <v>1</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="31">
+        <v>1</v>
+      </c>
+      <c r="D39" s="31">
+        <v>1</v>
+      </c>
+      <c r="E39" s="31">
+        <v>1</v>
+      </c>
+      <c r="F39" s="31">
+        <v>1</v>
+      </c>
+      <c r="G39" s="31">
+        <v>1</v>
+      </c>
+      <c r="H39" s="31">
+        <v>1</v>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="31">
+        <v>1</v>
+      </c>
+      <c r="D40" s="31">
+        <v>1</v>
+      </c>
+      <c r="E40" s="31">
+        <v>1</v>
+      </c>
+      <c r="F40" s="31">
+        <v>1</v>
+      </c>
+      <c r="G40" s="31">
+        <v>1</v>
+      </c>
+      <c r="H40" s="31">
+        <v>1</v>
+      </c>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="31">
+        <v>1</v>
+      </c>
+      <c r="D41" s="31">
+        <v>1</v>
+      </c>
+      <c r="E41" s="31">
+        <v>1</v>
+      </c>
+      <c r="F41" s="31">
+        <v>1</v>
+      </c>
+      <c r="G41" s="31">
+        <v>1</v>
+      </c>
+      <c r="H41" s="31">
+        <v>1</v>
+      </c>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="31">
+        <v>1</v>
+      </c>
+      <c r="D42" s="31">
+        <v>1</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31">
+        <v>1</v>
+      </c>
+      <c r="G42" s="31">
+        <v>1</v>
+      </c>
+      <c r="H42" s="31">
+        <v>1</v>
+      </c>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="31">
+        <v>1</v>
+      </c>
+      <c r="D43" s="31">
+        <v>1</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31">
+        <v>1</v>
+      </c>
+      <c r="G43" s="31">
+        <v>1</v>
+      </c>
+      <c r="H43" s="31">
+        <v>1</v>
+      </c>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="31">
+        <v>1</v>
+      </c>
+      <c r="D44" s="31">
+        <v>1</v>
+      </c>
+      <c r="E44" s="31">
+        <v>1</v>
+      </c>
+      <c r="F44" s="31">
+        <v>1</v>
+      </c>
+      <c r="G44" s="31">
+        <v>1</v>
+      </c>
+      <c r="H44" s="31">
+        <v>1</v>
+      </c>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="31">
+        <v>1</v>
+      </c>
+      <c r="D45" s="31">
+        <v>1</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="31">
+        <v>1</v>
+      </c>
+      <c r="D46" s="31">
+        <v>1</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="31">
+        <v>1</v>
+      </c>
+      <c r="D47" s="31">
+        <v>1</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="31">
+        <v>1</v>
+      </c>
+      <c r="D48" s="31">
+        <v>1</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="31">
+        <v>1</v>
+      </c>
+      <c r="D49" s="31">
+        <v>1</v>
+      </c>
+      <c r="E49" s="31">
+        <v>1</v>
+      </c>
+      <c r="F49" s="31">
+        <v>1</v>
+      </c>
+      <c r="G49" s="31">
+        <v>1</v>
+      </c>
+      <c r="H49" s="31">
+        <v>1</v>
+      </c>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="31">
+        <v>1</v>
+      </c>
+      <c r="D50" s="31">
+        <v>1</v>
+      </c>
+      <c r="E50" s="31">
+        <v>1</v>
+      </c>
+      <c r="F50" s="31">
+        <v>1</v>
+      </c>
+      <c r="G50" s="31">
+        <v>1</v>
+      </c>
+      <c r="H50" s="31">
+        <v>1</v>
+      </c>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="31">
+        <v>1</v>
+      </c>
+      <c r="D51" s="31">
+        <v>1</v>
+      </c>
+      <c r="E51" s="31">
+        <v>1</v>
+      </c>
+      <c r="F51" s="31">
+        <v>1</v>
+      </c>
+      <c r="G51" s="31">
+        <v>1</v>
+      </c>
+      <c r="H51" s="31">
+        <v>1</v>
+      </c>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="31">
+        <v>1</v>
+      </c>
+      <c r="D52" s="31">
+        <v>1</v>
+      </c>
+      <c r="E52" s="31">
+        <v>1</v>
+      </c>
+      <c r="F52" s="31">
+        <v>1</v>
+      </c>
+      <c r="G52" s="31">
+        <v>1</v>
+      </c>
+      <c r="H52" s="31">
+        <v>1</v>
+      </c>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="31">
+        <v>1</v>
+      </c>
+      <c r="D53" s="31">
+        <v>1</v>
+      </c>
+      <c r="E53" s="31">
+        <v>1</v>
+      </c>
+      <c r="F53" s="31">
+        <v>1</v>
+      </c>
+      <c r="G53" s="31">
+        <v>1</v>
+      </c>
+      <c r="H53" s="31">
+        <v>1</v>
+      </c>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="31">
+        <v>1</v>
+      </c>
+      <c r="D54" s="31">
+        <v>1</v>
+      </c>
+      <c r="E54" s="31">
+        <v>1</v>
+      </c>
+      <c r="F54" s="31">
+        <v>1</v>
+      </c>
+      <c r="G54" s="31">
+        <v>1</v>
+      </c>
+      <c r="H54" s="31">
+        <v>1</v>
+      </c>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="31">
+        <v>1</v>
+      </c>
+      <c r="D55" s="31">
+        <v>1</v>
+      </c>
+      <c r="E55" s="31">
+        <v>1</v>
+      </c>
+      <c r="F55" s="31">
+        <v>1</v>
+      </c>
+      <c r="G55" s="31">
+        <v>1</v>
+      </c>
+      <c r="H55" s="31">
+        <v>1</v>
+      </c>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="31">
+        <v>1</v>
+      </c>
+      <c r="D56" s="31">
+        <v>1</v>
+      </c>
+      <c r="E56" s="31">
+        <v>1</v>
+      </c>
+      <c r="F56" s="31">
+        <v>1</v>
+      </c>
+      <c r="G56" s="31">
+        <v>1</v>
+      </c>
+      <c r="H56" s="31">
+        <v>1</v>
+      </c>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="31">
+        <v>1</v>
+      </c>
+      <c r="D57" s="31">
+        <v>1</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31">
+        <v>1</v>
+      </c>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="31">
+        <v>1</v>
+      </c>
+      <c r="D58" s="31">
+        <v>1</v>
+      </c>
+      <c r="E58" s="31">
+        <v>1</v>
+      </c>
+      <c r="F58" s="31">
+        <v>1</v>
+      </c>
+      <c r="G58" s="31">
+        <v>1</v>
+      </c>
+      <c r="H58" s="31">
+        <v>1</v>
+      </c>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="31">
+        <v>1</v>
+      </c>
+      <c r="D59" s="31">
+        <v>1</v>
+      </c>
+      <c r="E59" s="31">
+        <v>1</v>
+      </c>
+      <c r="F59" s="31">
+        <v>1</v>
+      </c>
+      <c r="G59" s="31">
+        <v>1</v>
+      </c>
+      <c r="H59" s="31">
+        <v>1</v>
+      </c>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="31">
+        <v>1</v>
+      </c>
+      <c r="D60" s="31">
+        <v>1</v>
+      </c>
+      <c r="E60" s="31">
+        <v>1</v>
+      </c>
+      <c r="F60" s="31">
+        <v>1</v>
+      </c>
+      <c r="G60" s="31">
+        <v>1</v>
+      </c>
+      <c r="H60" s="31">
+        <v>1</v>
+      </c>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="31">
+        <v>1</v>
+      </c>
+      <c r="D61" s="31">
+        <v>1</v>
+      </c>
+      <c r="E61" s="31">
+        <v>1</v>
+      </c>
+      <c r="F61" s="31">
+        <v>1</v>
+      </c>
+      <c r="G61" s="31">
+        <v>1</v>
+      </c>
+      <c r="H61" s="31">
+        <v>1</v>
+      </c>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="31">
+        <v>1</v>
+      </c>
+      <c r="D62" s="31">
+        <v>1</v>
+      </c>
+      <c r="E62" s="31">
+        <v>1</v>
+      </c>
+      <c r="F62" s="31">
+        <v>1</v>
+      </c>
+      <c r="G62" s="31">
+        <v>1</v>
+      </c>
+      <c r="H62" s="31">
+        <v>1</v>
+      </c>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="31">
+        <v>1</v>
+      </c>
+      <c r="D63" s="31">
+        <v>1</v>
+      </c>
+      <c r="E63" s="31">
+        <v>1</v>
+      </c>
+      <c r="F63" s="31">
+        <v>1</v>
+      </c>
+      <c r="G63" s="31">
+        <v>1</v>
+      </c>
+      <c r="H63" s="31">
+        <v>1</v>
+      </c>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="31">
+        <v>1</v>
+      </c>
+      <c r="D64" s="31">
+        <v>1</v>
+      </c>
+      <c r="E64" s="31">
+        <v>1</v>
+      </c>
+      <c r="F64" s="31">
+        <v>1</v>
+      </c>
+      <c r="G64" s="31">
+        <v>1</v>
+      </c>
+      <c r="H64" s="31">
+        <v>1</v>
+      </c>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="31">
+        <v>1</v>
+      </c>
+      <c r="D65" s="31">
+        <v>1</v>
+      </c>
+      <c r="E65" s="31">
+        <v>1</v>
+      </c>
+      <c r="F65" s="31">
+        <v>1</v>
+      </c>
+      <c r="G65" s="31">
+        <v>1</v>
+      </c>
+      <c r="H65" s="31">
+        <v>1</v>
+      </c>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="31">
+        <v>1</v>
+      </c>
+      <c r="D66" s="31">
+        <v>1</v>
+      </c>
+      <c r="E66" s="31">
+        <v>1</v>
+      </c>
+      <c r="F66" s="31">
+        <v>1</v>
+      </c>
+      <c r="G66" s="31">
+        <v>1</v>
+      </c>
+      <c r="H66" s="31">
+        <v>1</v>
+      </c>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="31">
+        <v>1</v>
+      </c>
+      <c r="D67" s="31">
+        <v>1</v>
+      </c>
+      <c r="E67" s="31">
+        <v>1</v>
+      </c>
+      <c r="F67" s="31">
+        <v>1</v>
+      </c>
+      <c r="G67" s="31">
+        <v>1</v>
+      </c>
+      <c r="H67" s="31">
+        <v>1</v>
+      </c>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="31">
+        <v>1</v>
+      </c>
+      <c r="D68" s="31">
+        <v>1</v>
+      </c>
+      <c r="E68" s="31">
+        <v>1</v>
+      </c>
+      <c r="F68" s="31">
+        <v>1</v>
+      </c>
+      <c r="G68" s="31">
+        <v>1</v>
+      </c>
+      <c r="H68" s="31">
+        <v>1</v>
+      </c>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="31">
+        <v>1</v>
+      </c>
+      <c r="D69" s="31">
+        <v>1</v>
+      </c>
+      <c r="E69" s="31">
+        <v>1</v>
+      </c>
+      <c r="F69" s="31">
+        <v>1</v>
+      </c>
+      <c r="G69" s="31">
+        <v>1</v>
+      </c>
+      <c r="H69" s="31">
+        <v>1</v>
+      </c>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="31">
+        <v>1</v>
+      </c>
+      <c r="D70" s="31">
+        <v>1</v>
+      </c>
+      <c r="E70" s="31">
+        <v>1</v>
+      </c>
+      <c r="F70" s="31">
+        <v>1</v>
+      </c>
+      <c r="G70" s="31">
+        <v>1</v>
+      </c>
+      <c r="H70" s="31">
+        <v>1</v>
+      </c>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="31">
+        <v>1</v>
+      </c>
+      <c r="D71" s="31">
+        <v>1</v>
+      </c>
+      <c r="E71" s="31">
+        <v>1</v>
+      </c>
+      <c r="F71" s="31">
+        <v>1</v>
+      </c>
+      <c r="G71" s="31">
+        <v>1</v>
+      </c>
+      <c r="H71" s="31">
+        <v>1</v>
+      </c>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="31">
+        <v>1</v>
+      </c>
+      <c r="D72" s="31">
+        <v>1</v>
+      </c>
+      <c r="E72" s="31">
+        <v>1</v>
+      </c>
+      <c r="F72" s="31">
+        <v>1</v>
+      </c>
+      <c r="G72" s="31">
+        <v>1</v>
+      </c>
+      <c r="H72" s="31">
+        <v>1</v>
+      </c>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="31">
+        <v>1</v>
+      </c>
+      <c r="D73" s="31">
+        <v>1</v>
+      </c>
+      <c r="E73" s="31">
+        <v>1</v>
+      </c>
+      <c r="F73" s="31">
+        <v>1</v>
+      </c>
+      <c r="G73" s="31">
+        <v>1</v>
+      </c>
+      <c r="H73" s="31">
+        <v>1</v>
+      </c>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="31">
+        <v>1</v>
+      </c>
+      <c r="D74" s="31">
+        <v>1</v>
+      </c>
+      <c r="E74" s="31">
+        <v>1</v>
+      </c>
+      <c r="F74" s="31">
+        <v>1</v>
+      </c>
+      <c r="G74" s="31">
+        <v>1</v>
+      </c>
+      <c r="H74" s="31">
+        <v>1</v>
+      </c>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="31">
+        <v>1</v>
+      </c>
+      <c r="D75" s="31">
+        <v>1</v>
+      </c>
+      <c r="E75" s="31">
+        <v>1</v>
+      </c>
+      <c r="F75" s="31">
+        <v>1</v>
+      </c>
+      <c r="G75" s="31">
+        <v>1</v>
+      </c>
+      <c r="H75" s="31">
+        <v>1</v>
+      </c>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="31">
+        <v>1</v>
+      </c>
+      <c r="D76" s="31">
+        <v>1</v>
+      </c>
+      <c r="E76" s="31">
+        <v>1</v>
+      </c>
+      <c r="F76" s="31">
+        <v>1</v>
+      </c>
+      <c r="G76" s="31">
+        <v>1</v>
+      </c>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="31">
+        <v>1</v>
+      </c>
+      <c r="D77" s="31">
+        <v>1</v>
+      </c>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="31">
+        <v>1</v>
+      </c>
+      <c r="D78" s="31">
+        <v>1</v>
+      </c>
+      <c r="E78" s="31">
+        <v>1</v>
+      </c>
+      <c r="F78" s="31">
+        <v>1</v>
+      </c>
+      <c r="G78" s="31">
+        <v>1</v>
+      </c>
+      <c r="H78" s="31">
+        <v>1</v>
+      </c>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="31">
+        <v>1</v>
+      </c>
+      <c r="D79" s="31">
+        <v>1</v>
+      </c>
+      <c r="E79" s="31">
+        <v>1</v>
+      </c>
+      <c r="F79" s="31">
+        <v>1</v>
+      </c>
+      <c r="G79" s="31">
+        <v>1</v>
+      </c>
+      <c r="H79" s="31">
+        <v>1</v>
+      </c>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="31">
+        <v>1</v>
+      </c>
+      <c r="D80" s="31">
+        <v>1</v>
+      </c>
+      <c r="E80" s="31">
+        <v>1</v>
+      </c>
+      <c r="F80" s="31">
+        <v>1</v>
+      </c>
+      <c r="G80" s="31">
+        <v>1</v>
+      </c>
+      <c r="H80" s="31">
+        <v>1</v>
+      </c>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="31">
+        <v>1</v>
+      </c>
+      <c r="D81" s="31">
+        <v>1</v>
+      </c>
+      <c r="E81" s="31">
+        <v>1</v>
+      </c>
+      <c r="F81" s="31">
+        <v>1</v>
+      </c>
+      <c r="G81" s="31">
+        <v>1</v>
+      </c>
+      <c r="H81" s="31">
+        <v>1</v>
+      </c>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="31">
+        <v>1</v>
+      </c>
+      <c r="D82" s="31">
+        <v>1</v>
+      </c>
+      <c r="E82" s="31">
+        <v>1</v>
+      </c>
+      <c r="F82" s="31">
+        <v>1</v>
+      </c>
+      <c r="G82" s="31">
+        <v>1</v>
+      </c>
+      <c r="H82" s="31">
+        <v>1</v>
+      </c>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="31">
+        <v>1</v>
+      </c>
+      <c r="D83" s="31">
+        <v>1</v>
+      </c>
+      <c r="E83" s="31">
+        <v>1</v>
+      </c>
+      <c r="F83" s="31">
+        <v>1</v>
+      </c>
+      <c r="G83" s="31">
+        <v>1</v>
+      </c>
+      <c r="H83" s="31">
+        <v>1</v>
+      </c>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="31">
+        <v>1</v>
+      </c>
+      <c r="D84" s="31">
+        <v>1</v>
+      </c>
+      <c r="E84" s="31">
+        <v>1</v>
+      </c>
+      <c r="F84" s="31">
+        <v>1</v>
+      </c>
+      <c r="G84" s="31">
+        <v>1</v>
+      </c>
+      <c r="H84" s="31">
+        <v>1</v>
+      </c>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="31">
+        <v>1</v>
+      </c>
+      <c r="D85" s="31">
+        <v>1</v>
+      </c>
+      <c r="E85" s="31">
+        <v>1</v>
+      </c>
+      <c r="F85" s="31">
+        <v>1</v>
+      </c>
+      <c r="G85" s="31">
+        <v>1</v>
+      </c>
+      <c r="H85" s="31">
+        <v>1</v>
+      </c>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="31">
+        <v>1</v>
+      </c>
+      <c r="D86" s="31">
+        <v>1</v>
+      </c>
+      <c r="E86" s="31">
+        <v>1</v>
+      </c>
+      <c r="F86" s="31">
+        <v>1</v>
+      </c>
+      <c r="G86" s="31">
+        <v>1</v>
+      </c>
+      <c r="H86" s="31">
+        <v>1</v>
+      </c>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:D24">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:G38 E22:G24 E2:H21 H22:H38">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:H86">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:M86">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"d"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>